--- a/data_donations.worksheetxlsx.xlsx
+++ b/data_donations.worksheetxlsx.xlsx
@@ -3,25 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD02EE-0ECE-4733-BDAA-08DF0CA767E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F9AF25-1B91-448B-972E-146CC1407039}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="6" r:id="rId1"/>
     <sheet name="Correlation" sheetId="8" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
-    <sheet name="DONATIONS_WEEK104" sheetId="2" r:id="rId6"/>
-    <sheet name="AMAKON_SALES_WEEK104" sheetId="3" r:id="rId7"/>
+    <sheet name="DONATIONS_WEEK104" sheetId="2" r:id="rId5"/>
+    <sheet name="AMAKON_SALES_WEEK104" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$J$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId8"/>
+    <pivotCache cacheId="35" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="63">
   <si>
     <t>MONTH</t>
   </si>
@@ -217,37 +216,13 @@
     <t>(Multiple Items)</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t>Average of PROMO</t>
   </si>
   <si>
-    <t>Median</t>
+    <t>Season</t>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
-    <t>Sample Variance</t>
-  </si>
-  <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>Column10</t>
-  </si>
-  <si>
-    <t>WEEKMONTH2</t>
-  </si>
-  <si>
-    <t>Column11</t>
-  </si>
-  <si>
-    <t>Average of PROMO</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -259,7 +234,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,17 +276,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,30 +286,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -371,72 +319,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -472,29 +360,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="38">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     </dxf>
@@ -539,6 +415,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
@@ -2044,6 +1929,1044 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[data_donations.worksheetxlsx.xlsx]Graphs!PivotTable11</c:name>
+    <c:fmtId val="22"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$202:$B$203</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Graphs!$A$204:$A$269</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="53"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>JAN</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>FEB</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MAR</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>APR</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>MAY</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>JUN</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>JUL</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>AUG</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>SEP</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>OCT</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>NOV</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>DEC</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$B$204:$B$269</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>24149.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24520.325000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18536.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19386.330000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16205.53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18276.169999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22271.285</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24383.32</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31188.685000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42C8-497F-96CA-79452A0E5D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$202:$C$203</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Graphs!$A$204:$A$269</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="53"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>JAN</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>FEB</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>MAR</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>APR</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>MAY</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>JUN</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>JUL</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>AUG</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>SEP</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>OCT</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>NOV</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>DEC</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$204:$C$269</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="2">
+                  <c:v>13726.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14795.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18368.754999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14224.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13846.715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21378.084999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16592.235000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15284.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11452.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18256.215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18661.169999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18074.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11157.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13969.69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19058.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18750.264999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15174.615000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15687.904999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18775.73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13020.09</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13024.865000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12423.990000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15820.14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14543.134999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14977.91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12154.754999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13575.195</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16105.755000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13591.060000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7816.369999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15247.945</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18278.830000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16308.93</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11731.915000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14293</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13042.23</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15298.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13574.115000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10689.424999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6766.2250000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14736.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14125.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16771.29</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16919.760000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17001.625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16977.755000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17719.415000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13837.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42C8-497F-96CA-79452A0E5D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2128791328"/>
+        <c:axId val="2124136976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2128791328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124136976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2124136976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128791328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2986,7 +3909,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3992,7 +4915,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4950,7 +5873,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5236,7 +6159,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12302,6 +13225,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13629,7 +14592,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13656,8 +14619,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -13758,7 +14721,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -13790,10 +14753,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -13833,23 +14796,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -13954,8 +14916,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14087,20 +15049,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14114,17 +15075,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -15176,8 +16126,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15204,8 +16154,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15285,11 +16235,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -15300,11 +16245,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -15316,7 +16256,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -15336,9 +16276,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15351,10 +16288,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -15394,22 +16331,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -15514,8 +16452,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15647,19 +16585,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -15673,6 +16612,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -15692,7 +16642,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16208,7 +17158,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16724,7 +17674,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17240,7 +18190,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17756,8 +18706,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17865,6 +18815,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -17875,6 +18830,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -17906,6 +18866,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18259,8 +19222,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -18368,11 +19331,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -18383,11 +19341,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -18419,9 +19372,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18775,8 +19725,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -18884,6 +19834,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -18894,6 +19849,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -18925,6 +19885,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -19278,20 +20241,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>384810</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:colOff>398921</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:colOff>311291</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19467,15 +20933,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:colOff>510258</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>13406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>296898</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132081</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19602,7 +21068,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>-People donate more in frequently when er have a partnership</a:t>
+            <a:t>-People donate more frequently whe we have a partnership.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -19802,6 +21268,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>170039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>218721</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>161572</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265EA87D-D38F-4941-82D8-F7DA0933495E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20016,11 +21518,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="43532.415656712961" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{299316F1-DBED-4314-952F-3A5DACC03F4E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="43532.496795023151" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{299316F1-DBED-4314-952F-3A5DACC03F4E}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="12">
     <cacheField name="MONTH" numFmtId="0">
       <sharedItems count="12">
         <s v="NOV"/>
@@ -20080,6 +21582,12 @@
         <n v="3"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="Season" numFmtId="3">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="2">
+        <s v="-"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -20103,6 +21611,7 @@
     <n v="522"/>
     <n v="17089.919999999998"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -20115,6 +21624,7 @@
     <n v="680711"/>
     <n v="505"/>
     <n v="20883.23"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -20129,6 +21639,7 @@
     <n v="628"/>
     <n v="23297.34"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -20141,6 +21652,7 @@
     <n v="825631"/>
     <n v="679"/>
     <n v="18628.38"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -20155,6 +21667,7 @@
     <n v="543"/>
     <n v="24667.24"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -20167,6 +21680,7 @@
     <n v="764717"/>
     <n v="595"/>
     <n v="16694.7"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -20181,6 +21695,7 @@
     <n v="764"/>
     <n v="26331.72"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -20194,6 +21709,7 @@
     <n v="880"/>
     <n v="25491.88"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -20207,6 +21723,7 @@
     <n v="814"/>
     <n v="34745.370000000003"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -20219,6 +21736,7 @@
     <n v="837721"/>
     <n v="794"/>
     <n v="25693.37"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -20233,6 +21751,7 @@
     <n v="815"/>
     <n v="29559.93"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -20246,6 +21765,7 @@
     <n v="515"/>
     <n v="14512.41"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -20259,6 +21779,7 @@
     <n v="484"/>
     <n v="19654.310000000001"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -20272,6 +21793,7 @@
     <n v="16762"/>
     <n v="20011.91"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -20285,6 +21807,7 @@
     <n v="14758"/>
     <n v="20451.95"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -20298,6 +21821,7 @@
     <n v="15605"/>
     <n v="12532.43"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -20311,6 +21835,7 @@
     <n v="18270"/>
     <n v="23999.8"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -20324,6 +21849,7 @@
     <n v="17275"/>
     <n v="20335.8"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -20337,6 +21863,7 @@
     <n v="14944"/>
     <n v="15937.07"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -20350,6 +21877,7 @@
     <n v="17357"/>
     <n v="14128.64"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -20363,6 +21891,7 @@
     <n v="15736"/>
     <n v="24527.68"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -20376,6 +21905,7 @@
     <n v="603"/>
     <n v="18661.169999999998"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -20389,6 +21919,7 @@
     <n v="611"/>
     <n v="18074.46"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -20401,6 +21932,7 @@
     <n v="820987"/>
     <n v="498"/>
     <n v="16205.53"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -20415,6 +21947,7 @@
     <n v="575"/>
     <n v="18276.169999999998"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -20428,6 +21961,7 @@
     <n v="571"/>
     <n v="21403.13"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -20441,6 +21975,7 @@
     <n v="524"/>
     <n v="19952.27"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -20454,6 +21989,7 @@
     <n v="441"/>
     <n v="14710.12"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -20467,6 +22003,7 @@
     <n v="476"/>
     <n v="19818.41"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -20480,6 +22017,7 @@
     <n v="550"/>
     <n v="21665.07"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -20493,6 +22031,7 @@
     <n v="565"/>
     <n v="12509.58"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -20506,6 +22045,7 @@
     <n v="422"/>
     <n v="13494.11"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -20519,6 +22059,7 @@
     <n v="557"/>
     <n v="12417.45"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -20532,6 +22073,7 @@
     <n v="505"/>
     <n v="17506.810000000001"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -20545,6 +22087,7 @@
     <n v="483"/>
     <n v="15375.38"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -20558,6 +22101,7 @@
     <n v="480"/>
     <n v="18013.060000000001"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -20571,6 +22115,7 @@
     <n v="493"/>
     <n v="16668.89"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -20584,6 +22129,7 @@
     <n v="470"/>
     <n v="16436.32"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -20597,6 +22143,7 @@
     <n v="639"/>
     <n v="22220.99"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -20610,6 +22157,7 @@
     <n v="502"/>
     <n v="13801.02"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -20623,6 +22171,7 @@
     <n v="304"/>
     <n v="10378.799999999999"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -20636,6 +22185,7 @@
     <n v="434"/>
     <n v="17030.32"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -20649,6 +22199,7 @@
     <n v="463"/>
     <n v="19039.599999999999"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -20662,6 +22213,7 @@
     <n v="503"/>
     <n v="18802.060000000001"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -20675,6 +22227,7 @@
     <n v="482"/>
     <n v="13343.6"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -20688,6 +22241,7 @@
     <n v="469"/>
     <n v="15316.4"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -20701,6 +22255,7 @@
     <n v="449"/>
     <n v="17659.54"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
@@ -20714,6 +22269,7 @@
     <n v="447"/>
     <n v="17191.22"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
@@ -20727,6 +22283,7 @@
     <n v="346"/>
     <n v="15709.96"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
@@ -20740,6 +22297,7 @@
     <n v="506"/>
     <n v="8997.74"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
@@ -20753,6 +22311,7 @@
     <n v="452"/>
     <n v="16873.3"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
@@ -20766,6 +22325,7 @@
     <n v="663"/>
     <n v="14125.44"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -20779,6 +22339,7 @@
     <n v="17087"/>
     <n v="16452.66"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -20792,6 +22353,7 @@
     <n v="15920"/>
     <n v="12956.29"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -20805,6 +22367,7 @@
     <n v="17304"/>
     <n v="10705.91"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -20818,6 +22381,7 @@
     <n v="20067"/>
     <n v="15327.13"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -20831,6 +22395,7 @@
     <n v="16612"/>
     <n v="10771.59"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -20844,6 +22409,7 @@
     <n v="18628"/>
     <n v="10980.16"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -20856,6 +22422,7 @@
     <n v="904047"/>
     <n v="19636"/>
     <n v="18210.849999999999"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -20870,6 +22437,7 @@
     <n v="22423"/>
     <n v="23274.76"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -20882,6 +22450,7 @@
     <n v="1022028"/>
     <n v="22212"/>
     <n v="27632"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -20896,6 +22465,7 @@
     <n v="664"/>
     <n v="22605.97"/>
     <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -20909,6 +22479,7 @@
     <n v="643"/>
     <n v="19480.72"/>
     <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -20922,6 +22493,7 @@
     <n v="339"/>
     <n v="12939.95"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -20935,6 +22507,7 @@
     <n v="530"/>
     <n v="9937.0499999999993"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -20948,6 +22521,7 @@
     <n v="364"/>
     <n v="16725.599999999999"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -20961,6 +22535,7 @@
     <n v="258"/>
     <n v="7997.55"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -20974,6 +22549,7 @@
     <n v="282"/>
     <n v="15161"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -20987,6 +22563,7 @@
     <n v="539"/>
     <n v="18756.37"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -21000,6 +22577,7 @@
     <n v="334"/>
     <n v="12848.67"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -21013,6 +22591,7 @@
     <n v="230"/>
     <n v="14631.61"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -21026,6 +22605,7 @@
     <n v="348"/>
     <n v="8775.76"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -21039,6 +22619,7 @@
     <n v="484"/>
     <n v="11984.75"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -21052,6 +22633,7 @@
     <n v="513"/>
     <n v="18536.55"/>
     <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -21065,6 +22647,7 @@
     <n v="362"/>
     <n v="19386.330000000002"/>
     <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -21078,6 +22661,7 @@
     <n v="425"/>
     <n v="11157.09"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -21091,6 +22675,7 @@
     <n v="322"/>
     <n v="13969.69"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -21104,6 +22689,7 @@
     <n v="528"/>
     <n v="16714.77"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -21117,6 +22703,7 @@
     <n v="492"/>
     <n v="17548.259999999998"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -21130,6 +22717,7 @@
     <n v="419"/>
     <n v="15639.11"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -21143,6 +22731,7 @@
     <n v="361"/>
     <n v="11557.4"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -21156,6 +22745,7 @@
     <n v="362"/>
     <n v="15886.39"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -21169,6 +22759,7 @@
     <n v="465"/>
     <n v="13530.6"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -21182,6 +22773,7 @@
     <n v="214"/>
     <n v="12555.62"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -21195,6 +22787,7 @@
     <n v="355"/>
     <n v="12430.53"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -21208,6 +22801,7 @@
     <n v="455"/>
     <n v="14133.47"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -21221,6 +22815,7 @@
     <n v="317"/>
     <n v="13710.89"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -21234,6 +22829,7 @@
     <n v="274"/>
     <n v="11942.76"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -21247,6 +22843,7 @@
     <n v="336"/>
     <n v="7640.62"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -21260,6 +22857,7 @@
     <n v="408"/>
     <n v="10714.07"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -21273,6 +22871,7 @@
     <n v="511"/>
     <n v="9990.52"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -21286,6 +22885,7 @@
     <n v="365"/>
     <n v="13381.1"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -21299,6 +22899,7 @@
     <n v="202"/>
     <n v="5253.94"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -21312,6 +22913,7 @@
     <n v="296"/>
     <n v="13465.57"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -21325,6 +22927,7 @@
     <n v="258"/>
     <n v="17518.060000000001"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -21338,6 +22941,7 @@
     <n v="318"/>
     <n v="13815.8"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -21351,6 +22955,7 @@
     <n v="362"/>
     <n v="10120.23"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -21364,6 +22969,7 @@
     <n v="266"/>
     <n v="13269.6"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -21377,6 +22983,7 @@
     <n v="326"/>
     <n v="8424.92"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -21390,6 +22997,7 @@
     <n v="414"/>
     <n v="15298.06"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
@@ -21403,6 +23011,7 @@
     <n v="229"/>
     <n v="9957.01"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
@@ -21416,6 +23025,7 @@
     <n v="240"/>
     <n v="5668.89"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
@@ -21429,6 +23039,7 @@
     <n v="310"/>
     <n v="4534.71"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
@@ -21442,14 +23053,15 @@
     <n v="329"/>
     <n v="12599.5"/>
     <x v="2"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB2F3DD-79BA-4106-9DC5-31E2739658C5}" name="PivotTable10" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A182:D196" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFCBC310-5994-4406-BBCF-753AE3AA19BD}" name="PivotTable11" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+  <location ref="A202:D269" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="2"/>
@@ -21467,7 +23079,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="0"/>
         <item x="1"/>
@@ -21481,71 +23093,229 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="165" showAll="0"/>
-    <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
+    <pivotField multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="2">
         <item x="0"/>
         <item x="1"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField dataField="1" numFmtId="4" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="66">
     <i>
       <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i>
       <x v="3"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i>
       <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i>
       <x v="5"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
     </i>
     <i>
       <x v="7"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
     </i>
     <i>
       <x v="9"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i>
       <x v="10"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="6"/>
+    <field x="11"/>
   </colFields>
   <colItems count="3">
     <i>
@@ -21562,48 +23332,30 @@
     <dataField name="Average of SUM_DON (EUR)" fld="9" subtotal="average" baseField="0" baseItem="5"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="4">
-    <chartFormat chart="17" format="2" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="22" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="1" selected="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="17" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="4" series="1">
+    <chartFormat chart="22" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
+          <reference field="11" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -21622,151 +23374,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBEB6A5D-7B29-426B-BA74-BFF4E07C5506}" name="PivotTable9" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A165:B178" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of NUM_DON" fld="8" subtotal="average" baseField="0" baseItem="8"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="14">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="16" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E878AE-DE61-4AB3-B453-3E2107BDAC2F}" name="PivotTable8" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="A18:E32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39D6E336-FDCF-4127-BDF7-DE16870C2C5F}" name="PivotTable2" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A34:E48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="2"/>
@@ -21801,6 +23412,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -21867,7 +23479,456 @@
     <dataField name="Sum of SUM_DON (EUR)" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="17">
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB2F3DD-79BA-4106-9DC5-31E2739658C5}" name="PivotTable10" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A182:D196" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of SUM_DON (EUR)" fld="9" subtotal="average" baseField="0" baseItem="5"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="17" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBEB6A5D-7B29-426B-BA74-BFF4E07C5506}" name="PivotTable9" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A165:B178" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of NUM_DON" fld="8" subtotal="average" baseField="0" baseItem="8"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="16" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E878AE-DE61-4AB3-B453-3E2107BDAC2F}" name="PivotTable8" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="A18:E32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="10"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of SUM_DON (EUR)" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21948,10 +24009,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DD6A682-7B94-44B1-8477-F934C5DDDFF0}" name="PivotTable7" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DD6A682-7B94-44B1-8477-F934C5DDDFF0}" name="PivotTable7" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A2:E16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
+  <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="2"/>
@@ -21986,6 +24047,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -22052,7 +24114,7 @@
     <dataField name="Sum of NUM_DON" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="18">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -22097,10 +24159,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A324A8-3999-4529-978C-113C5A57054E}" name="PivotTable6" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A324A8-3999-4529-978C-113C5A57054E}" name="PivotTable6" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="A148:E162" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
+  <pivotFields count="12">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="2"/>
@@ -22118,16 +24180,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -22144,6 +24197,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -22210,11 +24264,11 @@
     <dataField name="Average of PROMO" fld="5" subtotal="average" baseField="0" baseItem="6"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="20">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="9">
+  <chartFormats count="6">
     <chartFormat chart="11" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -22240,42 +24294,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="11" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="17" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -22336,10 +24354,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE61F021-BDB1-4951-806E-D41C0E9EB4A7}" name="PivotTable5" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE61F021-BDB1-4951-806E-D41C0E9EB4A7}" name="PivotTable5" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A138:D145" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="11">
+  <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="2"/>
@@ -22383,6 +24401,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -22428,7 +24447,7 @@
     <dataField name="Average of AK_NUM_SALES" fld="7" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="21">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -22482,10 +24501,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7D32551-90D7-4C4E-959E-34BB20666E2D}" name="PivotTable4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7D32551-90D7-4C4E-959E-34BB20666E2D}" name="PivotTable4" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A68:E135" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
+  <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="2"/>
@@ -22529,6 +24548,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -22755,7 +24775,7 @@
     <dataField name="Sum of SUM_DON (EUR)" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="22">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -22908,10 +24928,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFD829FD-F237-4B1D-B1F5-84D77350C73F}" name="PivotTable3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFD829FD-F237-4B1D-B1F5-84D77350C73F}" name="PivotTable3" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A50:E57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
+  <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
@@ -22939,6 +24959,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -22984,7 +25005,7 @@
     <dataField name="Average of SUM_DON (EUR)" fld="9" subtotal="average" baseField="0" baseItem="1662414880"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="23">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -23101,196 +25122,23 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39D6E336-FDCF-4127-BDF7-DE16870C2C5F}" name="PivotTable2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A34:E48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="10"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of SUM_DON (EUR)" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="19">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3303D384-2449-465E-A421-05E31D9A8A45}" name="Table1" displayName="Table1" ref="A1:K105" totalsRowShown="0" headerRowDxfId="24">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{34682CCB-C981-46F2-9FAB-1014E3EC29EE}" name="MONTH" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{84AC2BC4-8EEB-4389-9381-09CC5A393A84}" name="WEEKMONTH" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{C0AECE6F-FB5F-4CD4-8FAB-1A0CC54890A1}" name="WEEK" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{26F30E93-2641-44C3-BC8F-DF35E8AEA0F3}" name="XMAS" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{FFDD0E0B-773A-4B1D-BF4B-2F05C0C4EC5F}" name="EASTER" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{B6239409-9998-48C5-881F-7D0ADAD4E690}" name="PROMO" dataDxfId="29" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{85875F25-AEC8-413F-AEF8-4116312A9BB9}" name="AK_PARTNERSHIP" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{0FDD3571-0138-47B6-ABE7-2A04D7249C17}" name="AK_NUM_SALES" dataDxfId="27" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{14E25EA9-9004-40FA-B099-87B9475BFECF}" name="NUM_DON" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{C6D0D30A-FB06-49BA-9C8B-A3C5B836EF24}" name="SUM_DON (EUR)" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3303D384-2449-465E-A421-05E31D9A8A45}" name="Table1" displayName="Table1" ref="A1:L105" totalsRowShown="0" headerRowDxfId="27">
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{34682CCB-C981-46F2-9FAB-1014E3EC29EE}" name="MONTH" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{84AC2BC4-8EEB-4389-9381-09CC5A393A84}" name="WEEKMONTH" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{C0AECE6F-FB5F-4CD4-8FAB-1A0CC54890A1}" name="WEEK" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{26F30E93-2641-44C3-BC8F-DF35E8AEA0F3}" name="XMAS" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{FFDD0E0B-773A-4B1D-BF4B-2F05C0C4EC5F}" name="EASTER" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{B6239409-9998-48C5-881F-7D0ADAD4E690}" name="PROMO" dataDxfId="32" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{85875F25-AEC8-413F-AEF8-4116312A9BB9}" name="AK_PARTNERSHIP" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{0FDD3571-0138-47B6-ABE7-2A04D7249C17}" name="AK_NUM_SALES" dataDxfId="30" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{14E25EA9-9004-40FA-B099-87B9475BFECF}" name="NUM_DON" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{C6D0D30A-FB06-49BA-9C8B-A3C5B836EF24}" name="SUM_DON (EUR)" dataDxfId="28"/>
     <tableColumn id="11" xr3:uid="{EB497BD0-D427-48DC-9F4D-F6D9CFDA21A2}" name="YEAR"/>
+    <tableColumn id="12" xr3:uid="{4E7AD30C-97CA-4056-8EF0-16C9A7C530B8}" name="Season" dataDxfId="17">
+      <calculatedColumnFormula>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23617,20 +25465,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC8E3C-D79D-4D0B-A4F8-E2617AB488D1}">
-  <dimension ref="A2:G196"/>
+  <dimension ref="A2:G269"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="L177" sqref="L177"/>
+    <sheetView showGridLines="0" topLeftCell="A193" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D210" sqref="D209:D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -24467,7 +26312,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="18">
+      <c r="A71" s="17">
         <v>1</v>
       </c>
       <c r="B71" s="16"/>
@@ -24482,7 +26327,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="18">
+      <c r="A72" s="17">
         <v>2</v>
       </c>
       <c r="B72" s="16"/>
@@ -24497,7 +26342,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="18">
+      <c r="A73" s="17">
         <v>3</v>
       </c>
       <c r="B73" s="16"/>
@@ -24512,7 +26357,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="18">
+      <c r="A74" s="17">
         <v>4</v>
       </c>
       <c r="B74" s="16"/>
@@ -24542,7 +26387,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="18">
+      <c r="A76" s="17">
         <v>1</v>
       </c>
       <c r="B76" s="16"/>
@@ -24557,7 +26402,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="18">
+      <c r="A77" s="17">
         <v>2</v>
       </c>
       <c r="B77" s="16"/>
@@ -24572,7 +26417,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="18">
+      <c r="A78" s="17">
         <v>3</v>
       </c>
       <c r="B78" s="16"/>
@@ -24587,7 +26432,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="18">
+      <c r="A79" s="17">
         <v>4</v>
       </c>
       <c r="B79" s="16"/>
@@ -24617,7 +26462,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="18">
+      <c r="A81" s="17">
         <v>1</v>
       </c>
       <c r="B81" s="16"/>
@@ -24632,7 +26477,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="18">
+      <c r="A82" s="17">
         <v>2</v>
       </c>
       <c r="B82" s="16"/>
@@ -24647,7 +26492,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="18">
+      <c r="A83" s="17">
         <v>3</v>
       </c>
       <c r="B83" s="16"/>
@@ -24662,7 +26507,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="18">
+      <c r="A84" s="17">
         <v>4</v>
       </c>
       <c r="B84" s="16"/>
@@ -24692,7 +26537,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="18">
+      <c r="A86" s="17">
         <v>1</v>
       </c>
       <c r="B86" s="16"/>
@@ -24707,7 +26552,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="18">
+      <c r="A87" s="17">
         <v>2</v>
       </c>
       <c r="B87" s="16"/>
@@ -24722,7 +26567,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="18">
+      <c r="A88" s="17">
         <v>3</v>
       </c>
       <c r="B88" s="16"/>
@@ -24737,7 +26582,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="18">
+      <c r="A89" s="17">
         <v>4</v>
       </c>
       <c r="B89" s="16"/>
@@ -24752,7 +26597,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="18">
+      <c r="A90" s="17">
         <v>5</v>
       </c>
       <c r="B90" s="16"/>
@@ -24782,7 +26627,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="18">
+      <c r="A92" s="17">
         <v>1</v>
       </c>
       <c r="B92" s="16"/>
@@ -24797,7 +26642,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="18">
+      <c r="A93" s="17">
         <v>2</v>
       </c>
       <c r="B93" s="16"/>
@@ -24812,7 +26657,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="18">
+      <c r="A94" s="17">
         <v>3</v>
       </c>
       <c r="B94" s="16"/>
@@ -24827,7 +26672,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="18">
+      <c r="A95" s="17">
         <v>4</v>
       </c>
       <c r="B95" s="16"/>
@@ -24857,7 +26702,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="18">
+      <c r="A97" s="17">
         <v>1</v>
       </c>
       <c r="B97" s="16"/>
@@ -24872,7 +26717,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="18">
+      <c r="A98" s="17">
         <v>2</v>
       </c>
       <c r="B98" s="16"/>
@@ -24887,7 +26732,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="18">
+      <c r="A99" s="17">
         <v>3</v>
       </c>
       <c r="B99" s="16"/>
@@ -24902,7 +26747,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="18">
+      <c r="A100" s="17">
         <v>4</v>
       </c>
       <c r="B100" s="16"/>
@@ -24932,7 +26777,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="18">
+      <c r="A102" s="17">
         <v>1</v>
       </c>
       <c r="B102" s="16"/>
@@ -24947,7 +26792,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="18">
+      <c r="A103" s="17">
         <v>2</v>
       </c>
       <c r="B103" s="16"/>
@@ -24962,7 +26807,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="18">
+      <c r="A104" s="17">
         <v>3</v>
       </c>
       <c r="B104" s="16"/>
@@ -24977,7 +26822,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="18">
+      <c r="A105" s="17">
         <v>4</v>
       </c>
       <c r="B105" s="16"/>
@@ -24992,7 +26837,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="18">
+      <c r="A106" s="17">
         <v>5</v>
       </c>
       <c r="B106" s="16"/>
@@ -25022,7 +26867,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="18">
+      <c r="A108" s="17">
         <v>1</v>
       </c>
       <c r="B108" s="16"/>
@@ -25037,7 +26882,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="18">
+      <c r="A109" s="17">
         <v>2</v>
       </c>
       <c r="B109" s="16"/>
@@ -25052,7 +26897,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="18">
+      <c r="A110" s="17">
         <v>3</v>
       </c>
       <c r="B110" s="16"/>
@@ -25067,7 +26912,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="18">
+      <c r="A111" s="17">
         <v>4</v>
       </c>
       <c r="B111" s="16"/>
@@ -25097,7 +26942,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="18">
+      <c r="A113" s="17">
         <v>1</v>
       </c>
       <c r="B113" s="16"/>
@@ -25112,7 +26957,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="18">
+      <c r="A114" s="17">
         <v>2</v>
       </c>
       <c r="B114" s="16"/>
@@ -25127,7 +26972,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="18">
+      <c r="A115" s="17">
         <v>3</v>
       </c>
       <c r="B115" s="16"/>
@@ -25142,7 +26987,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="18">
+      <c r="A116" s="17">
         <v>4</v>
       </c>
       <c r="B116" s="16"/>
@@ -25157,7 +27002,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="18">
+      <c r="A117" s="17">
         <v>5</v>
       </c>
       <c r="B117" s="16"/>
@@ -25185,7 +27030,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="18">
+      <c r="A119" s="17">
         <v>1</v>
       </c>
       <c r="B119" s="16"/>
@@ -25200,7 +27045,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="18">
+      <c r="A120" s="17">
         <v>2</v>
       </c>
       <c r="B120" s="16"/>
@@ -25215,7 +27060,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="18">
+      <c r="A121" s="17">
         <v>3</v>
       </c>
       <c r="B121" s="16"/>
@@ -25230,7 +27075,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="18">
+      <c r="A122" s="17">
         <v>4</v>
       </c>
       <c r="B122" s="16"/>
@@ -25245,7 +27090,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="18">
+      <c r="A123" s="17">
         <v>5</v>
       </c>
       <c r="B123" s="16"/>
@@ -25273,7 +27118,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="18">
+      <c r="A125" s="17">
         <v>1</v>
       </c>
       <c r="B125" s="16">
@@ -25288,7 +27133,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="18">
+      <c r="A126" s="17">
         <v>2</v>
       </c>
       <c r="B126" s="16">
@@ -25303,7 +27148,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="18">
+      <c r="A127" s="17">
         <v>3</v>
       </c>
       <c r="B127" s="16">
@@ -25318,7 +27163,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="18">
+      <c r="A128" s="17">
         <v>4</v>
       </c>
       <c r="B128" s="16">
@@ -25348,7 +27193,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="18">
+      <c r="A130" s="17">
         <v>1</v>
       </c>
       <c r="B130" s="16">
@@ -25363,7 +27208,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="18">
+      <c r="A131" s="17">
         <v>2</v>
       </c>
       <c r="B131" s="16">
@@ -25378,7 +27223,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="18">
+      <c r="A132" s="17">
         <v>3</v>
       </c>
       <c r="B132" s="16">
@@ -25393,7 +27238,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="18">
+      <c r="A133" s="17">
         <v>4</v>
       </c>
       <c r="B133" s="16">
@@ -25408,7 +27253,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="18">
+      <c r="A134" s="17">
         <v>5</v>
       </c>
       <c r="B134" s="16">
@@ -25555,7 +27400,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B148" s="14" t="s">
         <v>56</v>
@@ -26078,9 +27923,839 @@
         <v>16051.55201923077</v>
       </c>
     </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>62</v>
+      </c>
+      <c r="D203" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" s="16">
+        <v>24334.997499999998</v>
+      </c>
+      <c r="C204" s="16">
+        <v>14260.93</v>
+      </c>
+      <c r="D204" s="16">
+        <v>19297.963749999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="17">
+        <v>1</v>
+      </c>
+      <c r="B205" s="16">
+        <v>24149.67</v>
+      </c>
+      <c r="C205" s="16"/>
+      <c r="D205" s="16">
+        <v>24149.67</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="17">
+        <v>2</v>
+      </c>
+      <c r="B206" s="16">
+        <v>24520.325000000001</v>
+      </c>
+      <c r="C206" s="16"/>
+      <c r="D206" s="16">
+        <v>24520.325000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="17">
+        <v>3</v>
+      </c>
+      <c r="B207" s="16"/>
+      <c r="C207" s="16">
+        <v>13726.18</v>
+      </c>
+      <c r="D207" s="16">
+        <v>13726.18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="17">
+        <v>4</v>
+      </c>
+      <c r="B208" s="16"/>
+      <c r="C208" s="16">
+        <v>14795.68</v>
+      </c>
+      <c r="D208" s="16">
+        <v>14795.68</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" s="16"/>
+      <c r="C209" s="16">
+        <v>16954.576250000002</v>
+      </c>
+      <c r="D209" s="16">
+        <v>16954.576249999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="17">
+        <v>1</v>
+      </c>
+      <c r="B210" s="16"/>
+      <c r="C210" s="16">
+        <v>18368.754999999997</v>
+      </c>
+      <c r="D210" s="16">
+        <v>18368.754999999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="17">
+        <v>2</v>
+      </c>
+      <c r="B211" s="16"/>
+      <c r="C211" s="16">
+        <v>14224.75</v>
+      </c>
+      <c r="D211" s="16">
+        <v>14224.75</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="17">
+        <v>3</v>
+      </c>
+      <c r="B212" s="16"/>
+      <c r="C212" s="16">
+        <v>13846.715</v>
+      </c>
+      <c r="D212" s="16">
+        <v>13846.715</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="17">
+        <v>4</v>
+      </c>
+      <c r="B213" s="16"/>
+      <c r="C213" s="16">
+        <v>21378.084999999999</v>
+      </c>
+      <c r="D213" s="16">
+        <v>21378.084999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" s="16"/>
+      <c r="C214" s="16">
+        <v>15396.247500000001</v>
+      </c>
+      <c r="D214" s="16">
+        <v>15396.247500000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="17">
+        <v>1</v>
+      </c>
+      <c r="B215" s="16"/>
+      <c r="C215" s="16">
+        <v>16592.235000000001</v>
+      </c>
+      <c r="D215" s="16">
+        <v>16592.235000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="17">
+        <v>2</v>
+      </c>
+      <c r="B216" s="16"/>
+      <c r="C216" s="16">
+        <v>15284.34</v>
+      </c>
+      <c r="D216" s="16">
+        <v>15284.34</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="17">
+        <v>3</v>
+      </c>
+      <c r="B217" s="16"/>
+      <c r="C217" s="16">
+        <v>11452.2</v>
+      </c>
+      <c r="D217" s="16">
+        <v>11452.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="17">
+        <v>4</v>
+      </c>
+      <c r="B218" s="16"/>
+      <c r="C218" s="16">
+        <v>18256.215</v>
+      </c>
+      <c r="D218" s="16">
+        <v>18256.215</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219" s="16">
+        <v>18101.145</v>
+      </c>
+      <c r="C219" s="16">
+        <v>16663.385000000002</v>
+      </c>
+      <c r="D219" s="16">
+        <v>17238.488999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="17">
+        <v>1</v>
+      </c>
+      <c r="B220" s="16">
+        <v>18536.55</v>
+      </c>
+      <c r="C220" s="16">
+        <v>18661.169999999998</v>
+      </c>
+      <c r="D220" s="16">
+        <v>18598.86</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="17">
+        <v>2</v>
+      </c>
+      <c r="B221" s="16">
+        <v>19386.330000000002</v>
+      </c>
+      <c r="C221" s="16">
+        <v>18074.46</v>
+      </c>
+      <c r="D221" s="16">
+        <v>18730.395</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="17">
+        <v>3</v>
+      </c>
+      <c r="B222" s="16">
+        <v>16205.53</v>
+      </c>
+      <c r="C222" s="16">
+        <v>11157.09</v>
+      </c>
+      <c r="D222" s="16">
+        <v>13681.310000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="17">
+        <v>4</v>
+      </c>
+      <c r="B223" s="16">
+        <v>18276.169999999998</v>
+      </c>
+      <c r="C223" s="16">
+        <v>13969.69</v>
+      </c>
+      <c r="D223" s="16">
+        <v>16122.93</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="17">
+        <v>5</v>
+      </c>
+      <c r="B224" s="16"/>
+      <c r="C224" s="16">
+        <v>19058.95</v>
+      </c>
+      <c r="D224" s="16">
+        <v>19058.95</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225" s="16"/>
+      <c r="C225" s="16">
+        <v>17097.128750000003</v>
+      </c>
+      <c r="D225" s="16">
+        <v>17097.12875</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="17">
+        <v>1</v>
+      </c>
+      <c r="B226" s="16"/>
+      <c r="C226" s="16">
+        <v>18750.264999999999</v>
+      </c>
+      <c r="D226" s="16">
+        <v>18750.264999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="17">
+        <v>2</v>
+      </c>
+      <c r="B227" s="16"/>
+      <c r="C227" s="16">
+        <v>15174.615000000002</v>
+      </c>
+      <c r="D227" s="16">
+        <v>15174.615000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="17">
+        <v>3</v>
+      </c>
+      <c r="B228" s="16"/>
+      <c r="C228" s="16">
+        <v>15687.904999999999</v>
+      </c>
+      <c r="D228" s="16">
+        <v>15687.904999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="17">
+        <v>4</v>
+      </c>
+      <c r="B229" s="16"/>
+      <c r="C229" s="16">
+        <v>18775.73</v>
+      </c>
+      <c r="D229" s="16">
+        <v>18775.73</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="16"/>
+      <c r="C230" s="16">
+        <v>13572.27125</v>
+      </c>
+      <c r="D230" s="16">
+        <v>13572.271250000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="17">
+        <v>1</v>
+      </c>
+      <c r="B231" s="16"/>
+      <c r="C231" s="16">
+        <v>13020.09</v>
+      </c>
+      <c r="D231" s="16">
+        <v>13020.09</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="17">
+        <v>2</v>
+      </c>
+      <c r="B232" s="16"/>
+      <c r="C232" s="16">
+        <v>13024.865000000002</v>
+      </c>
+      <c r="D232" s="16">
+        <v>13024.865000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="17">
+        <v>3</v>
+      </c>
+      <c r="B233" s="16"/>
+      <c r="C233" s="16">
+        <v>12423.990000000002</v>
+      </c>
+      <c r="D233" s="16">
+        <v>12423.990000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="17">
+        <v>4</v>
+      </c>
+      <c r="B234" s="16"/>
+      <c r="C234" s="16">
+        <v>15820.14</v>
+      </c>
+      <c r="D234" s="16">
+        <v>15820.14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235" s="16"/>
+      <c r="C235" s="16">
+        <v>14271.35</v>
+      </c>
+      <c r="D235" s="16">
+        <v>14271.35</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="17">
+        <v>1</v>
+      </c>
+      <c r="B236" s="16"/>
+      <c r="C236" s="16">
+        <v>14543.134999999998</v>
+      </c>
+      <c r="D236" s="16">
+        <v>14543.134999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="17">
+        <v>2</v>
+      </c>
+      <c r="B237" s="16"/>
+      <c r="C237" s="16">
+        <v>14977.91</v>
+      </c>
+      <c r="D237" s="16">
+        <v>14977.91</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="17">
+        <v>3</v>
+      </c>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16">
+        <v>12154.754999999999</v>
+      </c>
+      <c r="D238" s="16">
+        <v>12154.754999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="17">
+        <v>4</v>
+      </c>
+      <c r="B239" s="16"/>
+      <c r="C239" s="16">
+        <v>13575.195</v>
+      </c>
+      <c r="D239" s="16">
+        <v>13575.195</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="17">
+        <v>5</v>
+      </c>
+      <c r="B240" s="16"/>
+      <c r="C240" s="16">
+        <v>16105.755000000001</v>
+      </c>
+      <c r="D240" s="16">
+        <v>16105.755000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" s="16"/>
+      <c r="C241" s="16">
+        <v>13733.55125</v>
+      </c>
+      <c r="D241" s="16">
+        <v>13733.55125</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="17">
+        <v>1</v>
+      </c>
+      <c r="B242" s="16"/>
+      <c r="C242" s="16">
+        <v>13591.060000000001</v>
+      </c>
+      <c r="D242" s="16">
+        <v>13591.060000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="17">
+        <v>2</v>
+      </c>
+      <c r="B243" s="16"/>
+      <c r="C243" s="16">
+        <v>7816.369999999999</v>
+      </c>
+      <c r="D243" s="16">
+        <v>7816.369999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="17">
+        <v>3</v>
+      </c>
+      <c r="B244" s="16"/>
+      <c r="C244" s="16">
+        <v>15247.945</v>
+      </c>
+      <c r="D244" s="16">
+        <v>15247.945</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="17">
+        <v>4</v>
+      </c>
+      <c r="B245" s="16"/>
+      <c r="C245" s="16">
+        <v>18278.830000000002</v>
+      </c>
+      <c r="D245" s="16">
+        <v>18278.830000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B246" s="16"/>
+      <c r="C246" s="16">
+        <v>14005.578888888889</v>
+      </c>
+      <c r="D246" s="16">
+        <v>14005.578888888887</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="17">
+        <v>1</v>
+      </c>
+      <c r="B247" s="16"/>
+      <c r="C247" s="16">
+        <v>16308.93</v>
+      </c>
+      <c r="D247" s="16">
+        <v>16308.93</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="17">
+        <v>2</v>
+      </c>
+      <c r="B248" s="16"/>
+      <c r="C248" s="16">
+        <v>11731.915000000001</v>
+      </c>
+      <c r="D248" s="16">
+        <v>11731.915000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="17">
+        <v>3</v>
+      </c>
+      <c r="B249" s="16"/>
+      <c r="C249" s="16">
+        <v>14293</v>
+      </c>
+      <c r="D249" s="16">
+        <v>14293</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="17">
+        <v>4</v>
+      </c>
+      <c r="B250" s="16"/>
+      <c r="C250" s="16">
+        <v>13042.23</v>
+      </c>
+      <c r="D250" s="16">
+        <v>13042.23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="17">
+        <v>5</v>
+      </c>
+      <c r="B251" s="16"/>
+      <c r="C251" s="16">
+        <v>15298.06</v>
+      </c>
+      <c r="D251" s="16">
+        <v>15298.06</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B252" s="16"/>
+      <c r="C252" s="16">
+        <v>11739.752222222223</v>
+      </c>
+      <c r="D252" s="16">
+        <v>11739.752222222223</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="17">
+        <v>1</v>
+      </c>
+      <c r="B253" s="16"/>
+      <c r="C253" s="16">
+        <v>13574.115000000002</v>
+      </c>
+      <c r="D253" s="16">
+        <v>13574.115000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="17">
+        <v>2</v>
+      </c>
+      <c r="B254" s="16"/>
+      <c r="C254" s="16">
+        <v>10689.424999999999</v>
+      </c>
+      <c r="D254" s="16">
+        <v>10689.424999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="17">
+        <v>3</v>
+      </c>
+      <c r="B255" s="16"/>
+      <c r="C255" s="16">
+        <v>6766.2250000000004</v>
+      </c>
+      <c r="D255" s="16">
+        <v>6766.2250000000004</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="17">
+        <v>4</v>
+      </c>
+      <c r="B256" s="16"/>
+      <c r="C256" s="16">
+        <v>14736.4</v>
+      </c>
+      <c r="D256" s="16">
+        <v>14736.4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="17">
+        <v>5</v>
+      </c>
+      <c r="B257" s="16"/>
+      <c r="C257" s="16">
+        <v>14125.44</v>
+      </c>
+      <c r="D257" s="16">
+        <v>14125.44</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" s="16"/>
+      <c r="C258" s="16">
+        <v>16917.607500000002</v>
+      </c>
+      <c r="D258" s="16">
+        <v>16917.607500000002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="17">
+        <v>1</v>
+      </c>
+      <c r="B259" s="16"/>
+      <c r="C259" s="16">
+        <v>16771.29</v>
+      </c>
+      <c r="D259" s="16">
+        <v>16771.29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="17">
+        <v>2</v>
+      </c>
+      <c r="B260" s="16"/>
+      <c r="C260" s="16">
+        <v>16919.760000000002</v>
+      </c>
+      <c r="D260" s="16">
+        <v>16919.760000000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="17">
+        <v>3</v>
+      </c>
+      <c r="B261" s="16"/>
+      <c r="C261" s="16">
+        <v>17001.625</v>
+      </c>
+      <c r="D261" s="16">
+        <v>17001.625</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="17">
+        <v>4</v>
+      </c>
+      <c r="B262" s="16"/>
+      <c r="C262" s="16">
+        <v>16977.755000000001</v>
+      </c>
+      <c r="D262" s="16">
+        <v>16977.755000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263" s="16">
+        <v>25947.763333333332</v>
+      </c>
+      <c r="C263" s="16">
+        <v>15778.422500000001</v>
+      </c>
+      <c r="D263" s="16">
+        <v>21880.027000000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="17">
+        <v>1</v>
+      </c>
+      <c r="B264" s="16"/>
+      <c r="C264" s="16">
+        <v>17719.415000000001</v>
+      </c>
+      <c r="D264" s="16">
+        <v>17719.415000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="17">
+        <v>2</v>
+      </c>
+      <c r="B265" s="16"/>
+      <c r="C265" s="16">
+        <v>13837.43</v>
+      </c>
+      <c r="D265" s="16">
+        <v>13837.43</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="17">
+        <v>3</v>
+      </c>
+      <c r="B266" s="16">
+        <v>22271.285</v>
+      </c>
+      <c r="C266" s="16"/>
+      <c r="D266" s="16">
+        <v>22271.285</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="17">
+        <v>4</v>
+      </c>
+      <c r="B267" s="16">
+        <v>24383.32</v>
+      </c>
+      <c r="C267" s="16"/>
+      <c r="D267" s="16">
+        <v>24383.32</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="17">
+        <v>5</v>
+      </c>
+      <c r="B268" s="16">
+        <v>31188.685000000001</v>
+      </c>
+      <c r="C268" s="16"/>
+      <c r="D268" s="16">
+        <v>31188.685000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B269" s="16">
+        <v>23245.082142857143</v>
+      </c>
+      <c r="C269" s="16">
+        <v>14932.558444444439</v>
+      </c>
+      <c r="D269" s="16">
+        <v>16051.552019230776</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -26161,7 +28836,7 @@
       <c r="B5">
         <v>-4.325095375831222E-2</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="19">
         <v>0.99000780062871041</v>
       </c>
       <c r="D5">
@@ -26201,7 +28876,7 @@
       <c r="C7" s="10">
         <v>-0.23048736528860284</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="18">
         <v>0.59926952211271434</v>
       </c>
       <c r="E7" s="10">
@@ -26223,8 +28898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26275,7 +28950,9 @@
       <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -26311,7 +28988,10 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
       <c r="O2" s="4"/>
@@ -26350,7 +29030,10 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="O3" s="4"/>
@@ -26389,7 +29072,10 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="4"/>
@@ -26428,7 +29114,10 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
       <c r="O5" s="4"/>
@@ -26467,7 +29156,10 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="4"/>
@@ -26506,7 +29198,10 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="4"/>
@@ -26545,7 +29240,10 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
       <c r="O8" s="4"/>
@@ -26584,7 +29282,10 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
       <c r="O9" s="4"/>
@@ -26623,7 +29324,10 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
       <c r="O10" s="4"/>
@@ -26662,7 +29366,10 @@
       <c r="K11">
         <v>2</v>
       </c>
-      <c r="L11" s="12"/>
+      <c r="L11" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
       <c r="O11" s="4"/>
@@ -26701,7 +29408,10 @@
       <c r="K12">
         <v>2</v>
       </c>
-      <c r="L12" s="12"/>
+      <c r="L12" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
       <c r="O12" s="4"/>
@@ -26740,7 +29450,10 @@
       <c r="K13">
         <v>2</v>
       </c>
-      <c r="L13" s="12"/>
+      <c r="L13" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
       <c r="O13" s="4"/>
@@ -26779,7 +29492,10 @@
       <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14" s="12"/>
+      <c r="L14" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" s="4"/>
@@ -26818,7 +29534,10 @@
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
       <c r="O15" s="4"/>
@@ -26857,7 +29576,10 @@
       <c r="K16">
         <v>2</v>
       </c>
-      <c r="L16" s="12"/>
+      <c r="L16" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="4"/>
@@ -26896,7 +29618,10 @@
       <c r="K17">
         <v>2</v>
       </c>
-      <c r="L17" s="12"/>
+      <c r="L17" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
       <c r="O17" s="4"/>
@@ -26935,7 +29660,10 @@
       <c r="K18">
         <v>2</v>
       </c>
-      <c r="L18" s="12"/>
+      <c r="L18" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
       <c r="O18" s="4"/>
@@ -26974,7 +29702,10 @@
       <c r="K19">
         <v>2</v>
       </c>
-      <c r="L19" s="12"/>
+      <c r="L19" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
       <c r="O19" s="4"/>
@@ -27013,7 +29744,10 @@
       <c r="K20">
         <v>2</v>
       </c>
-      <c r="L20" s="12"/>
+      <c r="L20" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="4"/>
@@ -27052,7 +29786,10 @@
       <c r="K21">
         <v>2</v>
       </c>
-      <c r="L21" s="12"/>
+      <c r="L21" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
       <c r="O21" s="4"/>
@@ -27091,7 +29828,10 @@
       <c r="K22">
         <v>2</v>
       </c>
-      <c r="L22" s="12"/>
+      <c r="L22" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
       <c r="O22" s="4"/>
@@ -27130,7 +29870,10 @@
       <c r="K23">
         <v>2</v>
       </c>
-      <c r="L23" s="12"/>
+      <c r="L23" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
       <c r="O23" s="4"/>
@@ -27169,7 +29912,10 @@
       <c r="K24">
         <v>2</v>
       </c>
-      <c r="L24" s="12"/>
+      <c r="L24" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
       <c r="O24" s="4"/>
@@ -27208,7 +29954,10 @@
       <c r="K25">
         <v>2</v>
       </c>
-      <c r="L25" s="12"/>
+      <c r="L25" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
       <c r="O25" s="4"/>
@@ -27247,7 +29996,10 @@
       <c r="K26">
         <v>2</v>
       </c>
-      <c r="L26" s="12"/>
+      <c r="L26" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
       <c r="O26" s="4"/>
@@ -27286,7 +30038,10 @@
       <c r="K27">
         <v>2</v>
       </c>
-      <c r="L27" s="12"/>
+      <c r="L27" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
       <c r="O27" s="4"/>
@@ -27325,7 +30080,10 @@
       <c r="K28">
         <v>2</v>
       </c>
-      <c r="L28" s="12"/>
+      <c r="L28" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
       <c r="O28" s="4"/>
@@ -27364,7 +30122,10 @@
       <c r="K29">
         <v>2</v>
       </c>
-      <c r="L29" s="12"/>
+      <c r="L29" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
       <c r="O29" s="4"/>
@@ -27403,7 +30164,10 @@
       <c r="K30">
         <v>2</v>
       </c>
-      <c r="L30" s="12"/>
+      <c r="L30" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
       <c r="O30" s="4"/>
@@ -27442,7 +30206,10 @@
       <c r="K31">
         <v>2</v>
       </c>
-      <c r="L31" s="12"/>
+      <c r="L31" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
       <c r="O31" s="4"/>
@@ -27481,7 +30248,10 @@
       <c r="K32">
         <v>2</v>
       </c>
-      <c r="L32" s="12"/>
+      <c r="L32" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
       <c r="O32" s="4"/>
@@ -27520,7 +30290,10 @@
       <c r="K33">
         <v>2</v>
       </c>
-      <c r="L33" s="12"/>
+      <c r="L33" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
       <c r="O33" s="4"/>
@@ -27559,7 +30332,10 @@
       <c r="K34">
         <v>2</v>
       </c>
-      <c r="L34" s="12"/>
+      <c r="L34" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
       <c r="O34" s="4"/>
@@ -27598,7 +30374,10 @@
       <c r="K35">
         <v>2</v>
       </c>
-      <c r="L35" s="12"/>
+      <c r="L35" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M35" s="4"/>
       <c r="N35" s="5"/>
       <c r="O35" s="4"/>
@@ -27637,7 +30416,10 @@
       <c r="K36">
         <v>2</v>
       </c>
-      <c r="L36" s="12"/>
+      <c r="L36" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M36" s="4"/>
       <c r="N36" s="5"/>
       <c r="O36" s="4"/>
@@ -27676,7 +30458,10 @@
       <c r="K37">
         <v>2</v>
       </c>
-      <c r="L37" s="12"/>
+      <c r="L37" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M37" s="4"/>
       <c r="N37" s="5"/>
       <c r="O37" s="4"/>
@@ -27715,7 +30500,10 @@
       <c r="K38">
         <v>2</v>
       </c>
-      <c r="L38" s="12"/>
+      <c r="L38" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="5"/>
       <c r="O38" s="4"/>
@@ -27754,7 +30542,10 @@
       <c r="K39">
         <v>2</v>
       </c>
-      <c r="L39" s="12"/>
+      <c r="L39" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M39" s="4"/>
       <c r="N39" s="5"/>
       <c r="O39" s="4"/>
@@ -27793,7 +30584,10 @@
       <c r="K40">
         <v>2</v>
       </c>
-      <c r="L40" s="12"/>
+      <c r="L40" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M40" s="4"/>
       <c r="N40" s="5"/>
       <c r="O40" s="4"/>
@@ -27832,7 +30626,10 @@
       <c r="K41">
         <v>2</v>
       </c>
-      <c r="L41" s="12"/>
+      <c r="L41" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="5"/>
       <c r="O41" s="4"/>
@@ -27871,7 +30668,10 @@
       <c r="K42">
         <v>2</v>
       </c>
-      <c r="L42" s="12"/>
+      <c r="L42" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M42" s="4"/>
       <c r="N42" s="5"/>
       <c r="O42" s="4"/>
@@ -27910,7 +30710,10 @@
       <c r="K43">
         <v>2</v>
       </c>
-      <c r="L43" s="12"/>
+      <c r="L43" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M43" s="4"/>
       <c r="N43" s="5"/>
       <c r="O43" s="4"/>
@@ -27949,7 +30752,10 @@
       <c r="K44">
         <v>2</v>
       </c>
-      <c r="L44" s="12"/>
+      <c r="L44" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M44" s="4"/>
       <c r="N44" s="5"/>
       <c r="O44" s="4"/>
@@ -27988,7 +30794,10 @@
       <c r="K45">
         <v>2</v>
       </c>
-      <c r="L45" s="12"/>
+      <c r="L45" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M45" s="4"/>
       <c r="N45" s="5"/>
       <c r="O45" s="4"/>
@@ -28027,7 +30836,10 @@
       <c r="K46">
         <v>2</v>
       </c>
-      <c r="L46" s="12"/>
+      <c r="L46" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M46" s="4"/>
       <c r="N46" s="5"/>
       <c r="O46" s="4"/>
@@ -28066,7 +30878,10 @@
       <c r="K47">
         <v>2</v>
       </c>
-      <c r="L47" s="12"/>
+      <c r="L47" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M47" s="4"/>
       <c r="N47" s="5"/>
       <c r="O47" s="4"/>
@@ -28105,7 +30920,10 @@
       <c r="K48">
         <v>2</v>
       </c>
-      <c r="L48" s="12"/>
+      <c r="L48" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M48" s="4"/>
       <c r="N48" s="5"/>
       <c r="O48" s="4"/>
@@ -28144,7 +30962,10 @@
       <c r="K49">
         <v>2</v>
       </c>
-      <c r="L49" s="12"/>
+      <c r="L49" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M49" s="4"/>
       <c r="N49" s="5"/>
       <c r="O49" s="4"/>
@@ -28183,7 +31004,10 @@
       <c r="K50">
         <v>2</v>
       </c>
-      <c r="L50" s="12"/>
+      <c r="L50" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M50" s="4"/>
       <c r="N50" s="5"/>
       <c r="O50" s="4"/>
@@ -28222,7 +31046,10 @@
       <c r="K51">
         <v>2</v>
       </c>
-      <c r="L51" s="12"/>
+      <c r="L51" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M51" s="4"/>
       <c r="N51" s="5"/>
       <c r="O51" s="4"/>
@@ -28261,7 +31088,10 @@
       <c r="K52">
         <v>2</v>
       </c>
-      <c r="L52" s="12"/>
+      <c r="L52" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M52" s="4"/>
       <c r="N52" s="5"/>
       <c r="O52" s="4"/>
@@ -28300,7 +31130,10 @@
       <c r="K53">
         <v>2</v>
       </c>
-      <c r="L53" s="12"/>
+      <c r="L53" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M53" s="4"/>
       <c r="N53" s="5"/>
       <c r="O53" s="4"/>
@@ -28339,7 +31172,10 @@
       <c r="K54">
         <v>2</v>
       </c>
-      <c r="L54" s="12"/>
+      <c r="L54" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M54" s="4"/>
       <c r="N54" s="5"/>
       <c r="O54" s="4"/>
@@ -28378,7 +31214,10 @@
       <c r="K55">
         <v>2</v>
       </c>
-      <c r="L55" s="12"/>
+      <c r="L55" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M55" s="4"/>
       <c r="N55" s="5"/>
       <c r="O55" s="4"/>
@@ -28417,7 +31256,10 @@
       <c r="K56">
         <v>2</v>
       </c>
-      <c r="L56" s="12"/>
+      <c r="L56" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M56" s="4"/>
       <c r="N56" s="5"/>
       <c r="O56" s="4"/>
@@ -28456,7 +31298,10 @@
       <c r="K57">
         <v>2</v>
       </c>
-      <c r="L57" s="12"/>
+      <c r="L57" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M57" s="4"/>
       <c r="N57" s="5"/>
       <c r="O57" s="4"/>
@@ -28495,7 +31340,10 @@
       <c r="K58">
         <v>2</v>
       </c>
-      <c r="L58" s="12"/>
+      <c r="L58" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M58" s="4"/>
       <c r="N58" s="5"/>
       <c r="O58" s="4"/>
@@ -28534,7 +31382,10 @@
       <c r="K59">
         <v>2</v>
       </c>
-      <c r="L59" s="12"/>
+      <c r="L59" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M59" s="4"/>
       <c r="N59" s="5"/>
       <c r="O59" s="4"/>
@@ -28573,7 +31424,10 @@
       <c r="K60">
         <v>2</v>
       </c>
-      <c r="L60" s="12"/>
+      <c r="L60" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M60" s="4"/>
       <c r="N60" s="5"/>
       <c r="O60" s="4"/>
@@ -28612,7 +31466,10 @@
       <c r="K61">
         <v>2</v>
       </c>
-      <c r="L61" s="12"/>
+      <c r="L61" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M61" s="4"/>
       <c r="N61" s="5"/>
       <c r="O61" s="4"/>
@@ -28651,7 +31508,10 @@
       <c r="K62">
         <v>2</v>
       </c>
-      <c r="L62" s="12"/>
+      <c r="L62" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M62" s="4"/>
       <c r="N62" s="5"/>
       <c r="O62" s="4"/>
@@ -28690,7 +31550,10 @@
       <c r="K63">
         <v>3</v>
       </c>
-      <c r="L63" s="12"/>
+      <c r="L63" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
       <c r="O63" s="4"/>
@@ -28729,7 +31592,10 @@
       <c r="K64">
         <v>3</v>
       </c>
-      <c r="L64" s="12"/>
+      <c r="L64" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
       <c r="O64" s="4"/>
@@ -28768,7 +31634,10 @@
       <c r="K65">
         <v>3</v>
       </c>
-      <c r="L65" s="12"/>
+      <c r="L65" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M65" s="4"/>
       <c r="N65" s="5"/>
       <c r="O65" s="4"/>
@@ -28807,7 +31676,10 @@
       <c r="K66">
         <v>3</v>
       </c>
-      <c r="L66" s="12"/>
+      <c r="L66" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M66" s="4"/>
       <c r="N66" s="5"/>
       <c r="O66" s="4"/>
@@ -28846,7 +31718,10 @@
       <c r="K67">
         <v>3</v>
       </c>
-      <c r="L67" s="12"/>
+      <c r="L67" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M67" s="4"/>
       <c r="N67" s="5"/>
       <c r="O67" s="4"/>
@@ -28885,7 +31760,10 @@
       <c r="K68">
         <v>3</v>
       </c>
-      <c r="L68" s="12"/>
+      <c r="L68" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M68" s="4"/>
       <c r="N68" s="5"/>
       <c r="O68" s="4"/>
@@ -28924,7 +31802,10 @@
       <c r="K69">
         <v>3</v>
       </c>
-      <c r="L69" s="12"/>
+      <c r="L69" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M69" s="4"/>
       <c r="N69" s="5"/>
       <c r="O69" s="4"/>
@@ -28963,7 +31844,10 @@
       <c r="K70">
         <v>3</v>
       </c>
-      <c r="L70" s="12"/>
+      <c r="L70" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M70" s="4"/>
       <c r="N70" s="5"/>
       <c r="O70" s="4"/>
@@ -29002,7 +31886,10 @@
       <c r="K71">
         <v>3</v>
       </c>
-      <c r="L71" s="12"/>
+      <c r="L71" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M71" s="4"/>
       <c r="N71" s="5"/>
       <c r="O71" s="4"/>
@@ -29041,7 +31928,10 @@
       <c r="K72">
         <v>3</v>
       </c>
-      <c r="L72" s="12"/>
+      <c r="L72" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M72" s="4"/>
       <c r="N72" s="5"/>
       <c r="O72" s="4"/>
@@ -29080,7 +31970,10 @@
       <c r="K73">
         <v>3</v>
       </c>
-      <c r="L73" s="12"/>
+      <c r="L73" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M73" s="4"/>
       <c r="N73" s="5"/>
       <c r="O73" s="4"/>
@@ -29119,7 +32012,10 @@
       <c r="K74">
         <v>3</v>
       </c>
-      <c r="L74" s="12"/>
+      <c r="L74" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M74" s="4"/>
       <c r="N74" s="5"/>
       <c r="O74" s="4"/>
@@ -29158,7 +32054,10 @@
       <c r="K75">
         <v>3</v>
       </c>
-      <c r="L75" s="12"/>
+      <c r="L75" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M75" s="4"/>
       <c r="N75" s="5"/>
       <c r="O75" s="4"/>
@@ -29197,7 +32096,10 @@
       <c r="K76">
         <v>3</v>
       </c>
-      <c r="L76" s="12"/>
+      <c r="L76" s="12">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>1</v>
+      </c>
       <c r="M76" s="4"/>
       <c r="N76" s="5"/>
       <c r="O76" s="4"/>
@@ -29236,7 +32138,10 @@
       <c r="K77">
         <v>3</v>
       </c>
-      <c r="L77" s="12"/>
+      <c r="L77" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M77" s="4"/>
       <c r="N77" s="5"/>
       <c r="O77" s="4"/>
@@ -29275,7 +32180,10 @@
       <c r="K78">
         <v>3</v>
       </c>
-      <c r="L78" s="12"/>
+      <c r="L78" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M78" s="4"/>
       <c r="N78" s="5"/>
       <c r="O78" s="4"/>
@@ -29314,7 +32222,10 @@
       <c r="K79">
         <v>3</v>
       </c>
-      <c r="L79" s="12"/>
+      <c r="L79" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M79" s="4"/>
       <c r="N79" s="5"/>
       <c r="O79" s="4"/>
@@ -29353,7 +32264,10 @@
       <c r="K80">
         <v>3</v>
       </c>
-      <c r="L80" s="12"/>
+      <c r="L80" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M80" s="4"/>
       <c r="N80" s="5"/>
       <c r="O80" s="4"/>
@@ -29392,7 +32306,10 @@
       <c r="K81">
         <v>3</v>
       </c>
-      <c r="L81" s="12"/>
+      <c r="L81" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M81" s="4"/>
       <c r="N81" s="5"/>
       <c r="O81" s="4"/>
@@ -29431,7 +32348,10 @@
       <c r="K82">
         <v>3</v>
       </c>
-      <c r="L82" s="12"/>
+      <c r="L82" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M82" s="4"/>
       <c r="N82" s="5"/>
       <c r="O82" s="4"/>
@@ -29470,7 +32390,10 @@
       <c r="K83">
         <v>3</v>
       </c>
-      <c r="L83" s="12"/>
+      <c r="L83" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M83" s="4"/>
       <c r="N83" s="5"/>
       <c r="O83" s="4"/>
@@ -29509,7 +32432,10 @@
       <c r="K84">
         <v>3</v>
       </c>
-      <c r="L84" s="12"/>
+      <c r="L84" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M84" s="4"/>
       <c r="N84" s="5"/>
       <c r="O84" s="4"/>
@@ -29548,7 +32474,10 @@
       <c r="K85">
         <v>3</v>
       </c>
-      <c r="L85" s="12"/>
+      <c r="L85" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M85" s="4"/>
       <c r="N85" s="5"/>
       <c r="O85" s="4"/>
@@ -29587,7 +32516,10 @@
       <c r="K86">
         <v>3</v>
       </c>
-      <c r="L86" s="12"/>
+      <c r="L86" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M86" s="4"/>
       <c r="N86" s="5"/>
       <c r="O86" s="4"/>
@@ -29626,7 +32558,10 @@
       <c r="K87">
         <v>3</v>
       </c>
-      <c r="L87" s="12"/>
+      <c r="L87" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M87" s="4"/>
       <c r="N87" s="5"/>
       <c r="O87" s="4"/>
@@ -29665,7 +32600,10 @@
       <c r="K88">
         <v>3</v>
       </c>
-      <c r="L88" s="12"/>
+      <c r="L88" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M88" s="4"/>
       <c r="N88" s="5"/>
       <c r="O88" s="4"/>
@@ -29704,7 +32642,10 @@
       <c r="K89">
         <v>3</v>
       </c>
-      <c r="L89" s="12"/>
+      <c r="L89" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M89" s="4"/>
       <c r="N89" s="5"/>
       <c r="O89" s="4"/>
@@ -29743,7 +32684,10 @@
       <c r="K90">
         <v>3</v>
       </c>
-      <c r="L90" s="12"/>
+      <c r="L90" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M90" s="4"/>
       <c r="N90" s="5"/>
       <c r="O90" s="4"/>
@@ -29782,7 +32726,10 @@
       <c r="K91">
         <v>3</v>
       </c>
-      <c r="L91" s="12"/>
+      <c r="L91" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M91" s="4"/>
       <c r="N91" s="5"/>
       <c r="O91" s="4"/>
@@ -29821,7 +32768,10 @@
       <c r="K92">
         <v>3</v>
       </c>
-      <c r="L92" s="12"/>
+      <c r="L92" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M92" s="4"/>
       <c r="N92" s="5"/>
       <c r="O92" s="4"/>
@@ -29860,7 +32810,10 @@
       <c r="K93">
         <v>3</v>
       </c>
-      <c r="L93" s="12"/>
+      <c r="L93" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M93" s="4"/>
       <c r="N93" s="5"/>
       <c r="O93" s="4"/>
@@ -29899,7 +32852,10 @@
       <c r="K94">
         <v>3</v>
       </c>
-      <c r="L94" s="12"/>
+      <c r="L94" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M94" s="4"/>
       <c r="N94" s="5"/>
       <c r="O94" s="4"/>
@@ -29938,7 +32894,10 @@
       <c r="K95">
         <v>3</v>
       </c>
-      <c r="L95" s="12"/>
+      <c r="L95" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M95" s="4"/>
       <c r="N95" s="5"/>
       <c r="O95" s="4"/>
@@ -29977,7 +32936,10 @@
       <c r="K96">
         <v>3</v>
       </c>
-      <c r="L96" s="12"/>
+      <c r="L96" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M96" s="4"/>
       <c r="N96" s="5"/>
       <c r="O96" s="4"/>
@@ -30016,7 +32978,10 @@
       <c r="K97">
         <v>3</v>
       </c>
-      <c r="L97" s="12"/>
+      <c r="L97" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M97" s="4"/>
       <c r="N97" s="5"/>
       <c r="O97" s="4"/>
@@ -30055,7 +33020,10 @@
       <c r="K98">
         <v>3</v>
       </c>
-      <c r="L98" s="12"/>
+      <c r="L98" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M98" s="4"/>
       <c r="N98" s="5"/>
       <c r="O98" s="4"/>
@@ -30094,7 +33062,10 @@
       <c r="K99">
         <v>3</v>
       </c>
-      <c r="L99" s="12"/>
+      <c r="L99" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M99" s="4"/>
       <c r="N99" s="5"/>
       <c r="O99" s="4"/>
@@ -30133,7 +33104,10 @@
       <c r="K100">
         <v>3</v>
       </c>
-      <c r="L100" s="12"/>
+      <c r="L100" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M100" s="4"/>
       <c r="N100" s="5"/>
       <c r="O100" s="4"/>
@@ -30172,7 +33146,10 @@
       <c r="K101">
         <v>3</v>
       </c>
-      <c r="L101" s="12"/>
+      <c r="L101" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M101" s="4"/>
       <c r="N101" s="5"/>
       <c r="O101" s="4"/>
@@ -30211,7 +33188,10 @@
       <c r="K102">
         <v>3</v>
       </c>
-      <c r="L102" s="12"/>
+      <c r="L102" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M102" s="4"/>
       <c r="N102" s="5"/>
       <c r="O102" s="4"/>
@@ -30250,7 +33230,10 @@
       <c r="K103">
         <v>3</v>
       </c>
-      <c r="L103" s="12"/>
+      <c r="L103" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M103" s="4"/>
       <c r="N103" s="5"/>
       <c r="O103" s="4"/>
@@ -30289,7 +33272,10 @@
       <c r="K104">
         <v>3</v>
       </c>
-      <c r="L104" s="12"/>
+      <c r="L104" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M104" s="4"/>
       <c r="N104" s="5"/>
       <c r="O104" s="4"/>
@@ -30328,7 +33314,10 @@
       <c r="K105">
         <v>3</v>
       </c>
-      <c r="L105" s="12"/>
+      <c r="L105" s="12" t="str">
+        <f>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</f>
+        <v>-</v>
+      </c>
       <c r="M105" s="4"/>
       <c r="N105" s="5"/>
       <c r="O105" s="4"/>
@@ -30364,344 +33353,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5C3A7B-4472-4183-B94B-831740076EF9}">
-  <dimension ref="A2:L11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="17">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17">
-        <v>63</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
-        <v>3512.9</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
-        <v>842252.80000000005</v>
-      </c>
-      <c r="I5" s="17">
-        <v>441.1</v>
-      </c>
-      <c r="J5" s="17">
-        <v>14271.349999999997</v>
-      </c>
-      <c r="K5" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="17">
-        <v>3</v>
-      </c>
-      <c r="C6" s="17">
-        <v>63</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>3388</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>845458</v>
-      </c>
-      <c r="I6" s="17">
-        <v>475</v>
-      </c>
-      <c r="J6" s="17">
-        <v>14543.134999999998</v>
-      </c>
-      <c r="K6" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="25">
-        <v>1</v>
-      </c>
-      <c r="C7" s="25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I7" s="25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K7" s="25">
-        <v>2</v>
-      </c>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="17">
-        <v>1.4907119849998598</v>
-      </c>
-      <c r="C8" s="17">
-        <v>27.446918466985203</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
-        <v>586.28670460790829</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>95453.945617535966</v>
-      </c>
-      <c r="I8" s="17">
-        <v>108.68553006009786</v>
-      </c>
-      <c r="J8" s="17">
-        <v>4340.1756091839934</v>
-      </c>
-      <c r="K8" s="17">
-        <v>0.52704627669472992</v>
-      </c>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="25">
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="C9" s="25">
-        <v>753.33333333333337</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
-      <c r="E9" s="25">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25">
-        <v>343732.10000000068</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="25">
-        <v>9111455733.955513</v>
-      </c>
-      <c r="I9" s="25">
-        <v>11812.544444444435</v>
-      </c>
-      <c r="J9" s="25">
-        <v>18837124.318555646</v>
-      </c>
-      <c r="K9" s="25">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="25">
-        <v>1</v>
-      </c>
-      <c r="C10" s="25">
-        <v>35</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25">
-        <v>2862</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
-        <v>682572</v>
-      </c>
-      <c r="I10" s="25">
-        <v>274</v>
-      </c>
-      <c r="J10" s="25">
-        <v>7640.62</v>
-      </c>
-      <c r="K10" s="25">
-        <v>2</v>
-      </c>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="17">
-        <v>5</v>
-      </c>
-      <c r="C11" s="17">
-        <v>91</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>4445</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <v>957922</v>
-      </c>
-      <c r="I11" s="17">
-        <v>639</v>
-      </c>
-      <c r="J11" s="17">
-        <v>22220.99</v>
-      </c>
-      <c r="K11" s="17">
-        <v>3</v>
-      </c>
-      <c r="L11" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33575,12 +36231,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data_donations.worksheetxlsx.xlsx
+++ b/data_donations.worksheetxlsx.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
-  <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F9AF25-1B91-448B-972E-146CC1407039}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2626EF1-F8F5-4215-9122-95AB007D80DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId7"/>
+    <pivotCache cacheId="36" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="63">
   <si>
     <t>MONTH</t>
   </si>
@@ -370,7 +370,49 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="50">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     </dxf>
@@ -424,12 +466,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
@@ -1487,7 +1523,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$182:$B$183</c:f>
+              <c:f>Graphs!$B$185:$B$186</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1508,7 +1544,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$184:$A$196</c:f>
+              <c:f>Graphs!$A$187:$A$199</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1552,7 +1588,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$B$184:$B$196</c:f>
+              <c:f>Graphs!$B$187:$B$199</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1606,7 +1642,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$C$182:$C$183</c:f>
+              <c:f>Graphs!$C$185:$C$186</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1627,7 +1663,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$184:$A$196</c:f>
+              <c:f>Graphs!$A$187:$A$199</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1671,7 +1707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$184:$C$196</c:f>
+              <c:f>Graphs!$C$187:$C$199</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2047,7 +2083,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$202:$B$203</c:f>
+              <c:f>Graphs!$B$205:$B$206</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2082,7 +2118,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Graphs!$A$204:$A$269</c:f>
+              <c:f>Graphs!$A$207:$A$272</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="53"/>
                 <c:lvl>
@@ -2289,7 +2325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$B$204:$B$269</c:f>
+              <c:f>Graphs!$B$207:$B$272</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="53"/>
@@ -2335,7 +2371,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$C$202:$C$203</c:f>
+              <c:f>Graphs!$C$205:$C$206</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2370,7 +2406,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Graphs!$A$204:$A$269</c:f>
+              <c:f>Graphs!$A$207:$A$272</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="53"/>
                 <c:lvl>
@@ -2577,7 +2613,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$204:$C$269</c:f>
+              <c:f>Graphs!$C$207:$C$272</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="53"/>
@@ -2967,6 +3003,581 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[data_donations.worksheetxlsx.xlsx]Graphs!PivotTable12</c:name>
+    <c:fmtId val="9"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$G$141:$G$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$F$143:$F$148</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$G$143:$G$148</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>532.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>779.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>814</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F970-4B0B-A183-661A245E1DC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$H$141:$H$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$F$143:$F$148</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$H$143:$H$148</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6013.083333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5679.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6154.166666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6703.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6021.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F970-4B0B-A183-661A245E1DC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$I$141:$I$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$F$143:$F$148</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$I$143:$I$148</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>406.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>401.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>484.33333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F970-4B0B-A183-661A245E1DC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1813631008"/>
+        <c:axId val="2022289456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1813631008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2022289456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2022289456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1813631008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3909,7 +4520,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4915,7 +5526,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5873,7 +6484,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6159,7 +6770,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6733,7 +7344,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$50:$B$51</c:f>
+              <c:f>Graphs!$B$53:$B$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6756,7 +7367,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$52:$A$57</c:f>
+              <c:f>Graphs!$A$55:$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6779,7 +7390,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$B$52:$B$57</c:f>
+              <c:f>Graphs!$B$55:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6813,7 +7424,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$C$50:$C$51</c:f>
+              <c:f>Graphs!$C$53:$C$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6836,7 +7447,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$52:$A$57</c:f>
+              <c:f>Graphs!$A$55:$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6859,7 +7470,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$52:$C$57</c:f>
+              <c:f>Graphs!$C$55:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6893,7 +7504,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$D$50:$D$51</c:f>
+              <c:f>Graphs!$D$53:$D$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6916,7 +7527,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$52:$A$57</c:f>
+              <c:f>Graphs!$A$55:$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6939,7 +7550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$D$52:$D$57</c:f>
+              <c:f>Graphs!$D$55:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7324,7 +7935,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$68:$B$69</c:f>
+              <c:f>Graphs!$B$71:$B$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7347,7 +7958,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Graphs!$A$70:$A$135</c:f>
+              <c:f>Graphs!$A$73:$A$138</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="53"/>
                 <c:lvl>
@@ -7554,7 +8165,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$B$70:$B$135</c:f>
+              <c:f>Graphs!$B$73:$B$138</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="53"/>
@@ -7600,7 +8211,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$C$68:$C$69</c:f>
+              <c:f>Graphs!$C$71:$C$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7623,7 +8234,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Graphs!$A$70:$A$135</c:f>
+              <c:f>Graphs!$A$73:$A$138</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="53"/>
                 <c:lvl>
@@ -7830,7 +8441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$70:$C$135</c:f>
+              <c:f>Graphs!$C$73:$C$138</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="53"/>
@@ -8005,7 +8616,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$D$68:$D$69</c:f>
+              <c:f>Graphs!$D$71:$D$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8028,7 +8639,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Graphs!$A$70:$A$135</c:f>
+              <c:f>Graphs!$A$73:$A$138</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="53"/>
                 <c:lvl>
@@ -8235,7 +8846,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$D$70:$D$135</c:f>
+              <c:f>Graphs!$D$73:$D$138</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="53"/>
@@ -8842,7 +9453,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$138:$B$139</c:f>
+              <c:f>Graphs!$B$141:$B$142</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8865,7 +9476,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$140:$A$145</c:f>
+              <c:f>Graphs!$A$143:$A$148</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -8888,7 +9499,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$B$140:$B$145</c:f>
+              <c:f>Graphs!$B$143:$B$148</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8922,7 +9533,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$C$138:$C$139</c:f>
+              <c:f>Graphs!$C$141:$C$142</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8945,7 +9556,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$140:$A$145</c:f>
+              <c:f>Graphs!$A$143:$A$148</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -8968,7 +9579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$140:$C$145</c:f>
+              <c:f>Graphs!$C$143:$C$148</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9514,7 +10125,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$148:$B$149</c:f>
+              <c:f>Graphs!$B$151:$B$152</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9537,7 +10148,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$150:$A$162</c:f>
+              <c:f>Graphs!$A$153:$A$165</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -9581,7 +10192,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$B$150:$B$162</c:f>
+              <c:f>Graphs!$B$153:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9606,7 +10217,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$C$148:$C$149</c:f>
+              <c:f>Graphs!$C$151:$C$152</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9629,7 +10240,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$150:$A$162</c:f>
+              <c:f>Graphs!$A$153:$A$165</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -9673,7 +10284,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$150:$C$162</c:f>
+              <c:f>Graphs!$C$153:$C$165</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9728,7 +10339,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$D$148:$D$149</c:f>
+              <c:f>Graphs!$D$151:$D$152</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9751,7 +10362,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$150:$A$162</c:f>
+              <c:f>Graphs!$A$153:$A$165</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -9795,7 +10406,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$D$150:$D$162</c:f>
+              <c:f>Graphs!$D$153:$D$165</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -11997,7 +12608,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$148:$B$149</c:f>
+              <c:f>Graphs!$B$151:$B$152</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12020,7 +12631,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$150:$A$162</c:f>
+              <c:f>Graphs!$A$153:$A$165</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -12064,7 +12675,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$B$150:$B$162</c:f>
+              <c:f>Graphs!$B$153:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -12089,7 +12700,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$C$148:$C$149</c:f>
+              <c:f>Graphs!$C$151:$C$152</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12112,7 +12723,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$150:$A$162</c:f>
+              <c:f>Graphs!$A$153:$A$165</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -12156,7 +12767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$C$150:$C$162</c:f>
+              <c:f>Graphs!$C$153:$C$165</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -12211,7 +12822,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$D$148:$D$149</c:f>
+              <c:f>Graphs!$D$151:$D$152</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12234,7 +12845,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$150:$A$162</c:f>
+              <c:f>Graphs!$A$153:$A$165</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -12278,7 +12889,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$D$150:$D$162</c:f>
+              <c:f>Graphs!$D$153:$D$165</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -12690,7 +13301,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$B$165</c:f>
+              <c:f>Graphs!$B$168</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12711,7 +13322,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$A$166:$A$178</c:f>
+              <c:f>Graphs!$A$169:$A$181</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -12755,7 +13366,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$B$166:$B$178</c:f>
+              <c:f>Graphs!$B$169:$B$181</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -13265,6 +13876,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15095,7 +15746,7 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15122,8 +15773,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15224,6 +15875,509 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15610,7 +16764,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16126,7 +17280,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20792,7 +21946,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>499110</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20822,13 +21976,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>697230</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20864,7 +22018,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20896,13 +22050,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1051560</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21167,13 +22321,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>967740</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21205,13 +22359,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384810</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21241,13 +22395,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>346710</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21277,13 +22431,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>170039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>218721</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>161572</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21304,6 +22458,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152816</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>70680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1716077</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>62212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17326C2-1309-4FF9-A62D-A75FDF8FEE2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21573,7 +22763,112 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="202" maxValue="22423"/>
     </cacheField>
     <cacheField name="SUM_DON (EUR)" numFmtId="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4534.71" maxValue="34745.370000000003"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4534.71" maxValue="34745.370000000003" count="104">
+        <n v="17089.919999999998"/>
+        <n v="20883.23"/>
+        <n v="23297.34"/>
+        <n v="18628.38"/>
+        <n v="24667.24"/>
+        <n v="16694.7"/>
+        <n v="26331.72"/>
+        <n v="25491.88"/>
+        <n v="34745.370000000003"/>
+        <n v="25693.37"/>
+        <n v="29559.93"/>
+        <n v="14512.41"/>
+        <n v="19654.310000000001"/>
+        <n v="20011.91"/>
+        <n v="20451.95"/>
+        <n v="12532.43"/>
+        <n v="23999.8"/>
+        <n v="20335.8"/>
+        <n v="15937.07"/>
+        <n v="14128.64"/>
+        <n v="24527.68"/>
+        <n v="18661.169999999998"/>
+        <n v="18074.46"/>
+        <n v="16205.53"/>
+        <n v="18276.169999999998"/>
+        <n v="21403.13"/>
+        <n v="19952.27"/>
+        <n v="14710.12"/>
+        <n v="19818.41"/>
+        <n v="21665.07"/>
+        <n v="12509.58"/>
+        <n v="13494.11"/>
+        <n v="12417.45"/>
+        <n v="17506.810000000001"/>
+        <n v="15375.38"/>
+        <n v="18013.060000000001"/>
+        <n v="16668.89"/>
+        <n v="16436.32"/>
+        <n v="22220.99"/>
+        <n v="13801.02"/>
+        <n v="10378.799999999999"/>
+        <n v="17030.32"/>
+        <n v="19039.599999999999"/>
+        <n v="18802.060000000001"/>
+        <n v="13343.6"/>
+        <n v="15316.4"/>
+        <n v="17659.54"/>
+        <n v="17191.22"/>
+        <n v="15709.96"/>
+        <n v="8997.74"/>
+        <n v="16873.3"/>
+        <n v="14125.44"/>
+        <n v="16452.66"/>
+        <n v="12956.29"/>
+        <n v="10705.91"/>
+        <n v="15327.13"/>
+        <n v="10771.59"/>
+        <n v="10980.16"/>
+        <n v="18210.849999999999"/>
+        <n v="23274.76"/>
+        <n v="27632"/>
+        <n v="22605.97"/>
+        <n v="19480.72"/>
+        <n v="12939.95"/>
+        <n v="9937.0499999999993"/>
+        <n v="16725.599999999999"/>
+        <n v="7997.55"/>
+        <n v="15161"/>
+        <n v="18756.37"/>
+        <n v="12848.67"/>
+        <n v="14631.61"/>
+        <n v="8775.76"/>
+        <n v="11984.75"/>
+        <n v="18536.55"/>
+        <n v="19386.330000000002"/>
+        <n v="11157.09"/>
+        <n v="13969.69"/>
+        <n v="16714.77"/>
+        <n v="17548.259999999998"/>
+        <n v="15639.11"/>
+        <n v="11557.4"/>
+        <n v="15886.39"/>
+        <n v="13530.6"/>
+        <n v="12555.62"/>
+        <n v="12430.53"/>
+        <n v="14133.47"/>
+        <n v="13710.89"/>
+        <n v="11942.76"/>
+        <n v="7640.62"/>
+        <n v="10714.07"/>
+        <n v="9990.52"/>
+        <n v="13381.1"/>
+        <n v="5253.94"/>
+        <n v="13465.57"/>
+        <n v="17518.060000000001"/>
+        <n v="13815.8"/>
+        <n v="10120.23"/>
+        <n v="13269.6"/>
+        <n v="8424.92"/>
+        <n v="15298.06"/>
+        <n v="9957.01"/>
+        <n v="5668.89"/>
+        <n v="4534.71"/>
+        <n v="12599.5"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="YEAR" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
@@ -21609,7 +22904,7 @@
     <x v="0"/>
     <n v="666181"/>
     <n v="522"/>
-    <n v="17089.919999999998"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -21623,7 +22918,7 @@
     <x v="0"/>
     <n v="680711"/>
     <n v="505"/>
-    <n v="20883.23"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -21637,7 +22932,7 @@
     <x v="0"/>
     <n v="634741"/>
     <n v="628"/>
-    <n v="23297.34"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -21651,7 +22946,7 @@
     <x v="0"/>
     <n v="825631"/>
     <n v="679"/>
-    <n v="18628.38"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -21665,7 +22960,7 @@
     <x v="0"/>
     <n v="726538"/>
     <n v="543"/>
-    <n v="24667.24"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -21679,7 +22974,7 @@
     <x v="0"/>
     <n v="764717"/>
     <n v="595"/>
-    <n v="16694.7"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -21693,7 +22988,7 @@
     <x v="0"/>
     <n v="875246"/>
     <n v="764"/>
-    <n v="26331.72"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="1"/>
   </r>
@@ -21707,7 +23002,7 @@
     <x v="0"/>
     <n v="837368"/>
     <n v="880"/>
-    <n v="25491.88"/>
+    <x v="7"/>
     <x v="0"/>
     <x v="1"/>
   </r>
@@ -21721,7 +23016,7 @@
     <x v="0"/>
     <n v="911857"/>
     <n v="814"/>
-    <n v="34745.370000000003"/>
+    <x v="8"/>
     <x v="0"/>
     <x v="1"/>
   </r>
@@ -21735,7 +23030,7 @@
     <x v="0"/>
     <n v="837721"/>
     <n v="794"/>
-    <n v="25693.37"/>
+    <x v="9"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -21749,7 +23044,7 @@
     <x v="0"/>
     <n v="771079"/>
     <n v="815"/>
-    <n v="29559.93"/>
+    <x v="10"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -21763,7 +23058,7 @@
     <x v="0"/>
     <n v="780192"/>
     <n v="515"/>
-    <n v="14512.41"/>
+    <x v="11"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21777,7 +23072,7 @@
     <x v="0"/>
     <n v="700097"/>
     <n v="484"/>
-    <n v="19654.310000000001"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21791,7 +23086,7 @@
     <x v="1"/>
     <n v="765426"/>
     <n v="16762"/>
-    <n v="20011.91"/>
+    <x v="13"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21805,7 +23100,7 @@
     <x v="1"/>
     <n v="661805"/>
     <n v="14758"/>
-    <n v="20451.95"/>
+    <x v="14"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21819,7 +23114,7 @@
     <x v="1"/>
     <n v="708796"/>
     <n v="15605"/>
-    <n v="12532.43"/>
+    <x v="15"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21833,7 +23128,7 @@
     <x v="1"/>
     <n v="833139"/>
     <n v="18270"/>
-    <n v="23999.8"/>
+    <x v="16"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21847,7 +23142,7 @@
     <x v="1"/>
     <n v="786752"/>
     <n v="17275"/>
-    <n v="20335.8"/>
+    <x v="17"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21861,7 +23156,7 @@
     <x v="1"/>
     <n v="677290"/>
     <n v="14944"/>
-    <n v="15937.07"/>
+    <x v="18"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21875,7 +23170,7 @@
     <x v="1"/>
     <n v="790761"/>
     <n v="17357"/>
-    <n v="14128.64"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21889,7 +23184,7 @@
     <x v="1"/>
     <n v="708026"/>
     <n v="15736"/>
-    <n v="24527.68"/>
+    <x v="20"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21903,7 +23198,7 @@
     <x v="0"/>
     <n v="759081"/>
     <n v="603"/>
-    <n v="18661.169999999998"/>
+    <x v="21"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21917,7 +23212,7 @@
     <x v="0"/>
     <n v="729680"/>
     <n v="611"/>
-    <n v="18074.46"/>
+    <x v="22"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21931,7 +23226,7 @@
     <x v="0"/>
     <n v="820987"/>
     <n v="498"/>
-    <n v="16205.53"/>
+    <x v="23"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -21945,7 +23240,7 @@
     <x v="0"/>
     <n v="776577"/>
     <n v="575"/>
-    <n v="18276.169999999998"/>
+    <x v="24"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -21959,7 +23254,7 @@
     <x v="0"/>
     <n v="870710"/>
     <n v="571"/>
-    <n v="21403.13"/>
+    <x v="25"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21973,7 +23268,7 @@
     <x v="0"/>
     <n v="699067"/>
     <n v="524"/>
-    <n v="19952.27"/>
+    <x v="26"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -21987,7 +23282,7 @@
     <x v="0"/>
     <n v="679173"/>
     <n v="441"/>
-    <n v="14710.12"/>
+    <x v="27"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22001,7 +23296,7 @@
     <x v="0"/>
     <n v="694546"/>
     <n v="476"/>
-    <n v="19818.41"/>
+    <x v="28"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22015,7 +23310,7 @@
     <x v="0"/>
     <n v="840984"/>
     <n v="550"/>
-    <n v="21665.07"/>
+    <x v="29"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22029,7 +23324,7 @@
     <x v="0"/>
     <n v="707114"/>
     <n v="565"/>
-    <n v="12509.58"/>
+    <x v="30"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22043,7 +23338,7 @@
     <x v="0"/>
     <n v="772332"/>
     <n v="422"/>
-    <n v="13494.11"/>
+    <x v="31"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22057,7 +23352,7 @@
     <x v="0"/>
     <n v="748952"/>
     <n v="557"/>
-    <n v="12417.45"/>
+    <x v="32"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22071,7 +23366,7 @@
     <x v="0"/>
     <n v="763905"/>
     <n v="505"/>
-    <n v="17506.810000000001"/>
+    <x v="33"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22085,7 +23380,7 @@
     <x v="0"/>
     <n v="778244"/>
     <n v="483"/>
-    <n v="15375.38"/>
+    <x v="34"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22099,7 +23394,7 @@
     <x v="0"/>
     <n v="783531"/>
     <n v="480"/>
-    <n v="18013.060000000001"/>
+    <x v="35"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22113,7 +23408,7 @@
     <x v="0"/>
     <n v="682572"/>
     <n v="493"/>
-    <n v="16668.89"/>
+    <x v="36"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22127,7 +23422,7 @@
     <x v="0"/>
     <n v="784353"/>
     <n v="470"/>
-    <n v="16436.32"/>
+    <x v="37"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22141,7 +23436,7 @@
     <x v="0"/>
     <n v="754976"/>
     <n v="639"/>
-    <n v="22220.99"/>
+    <x v="38"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22155,7 +23450,7 @@
     <x v="0"/>
     <n v="785424"/>
     <n v="502"/>
-    <n v="13801.02"/>
+    <x v="39"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22169,7 +23464,7 @@
     <x v="0"/>
     <n v="778471"/>
     <n v="304"/>
-    <n v="10378.799999999999"/>
+    <x v="40"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22183,7 +23478,7 @@
     <x v="0"/>
     <n v="722243"/>
     <n v="434"/>
-    <n v="17030.32"/>
+    <x v="41"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22197,7 +23492,7 @@
     <x v="0"/>
     <n v="779833"/>
     <n v="463"/>
-    <n v="19039.599999999999"/>
+    <x v="42"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22211,7 +23506,7 @@
     <x v="0"/>
     <n v="723884"/>
     <n v="503"/>
-    <n v="18802.060000000001"/>
+    <x v="43"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22225,7 +23520,7 @@
     <x v="0"/>
     <n v="821662"/>
     <n v="482"/>
-    <n v="13343.6"/>
+    <x v="44"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22239,7 +23534,7 @@
     <x v="0"/>
     <n v="801302"/>
     <n v="469"/>
-    <n v="15316.4"/>
+    <x v="45"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22253,7 +23548,7 @@
     <x v="0"/>
     <n v="762260"/>
     <n v="449"/>
-    <n v="17659.54"/>
+    <x v="46"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22267,7 +23562,7 @@
     <x v="0"/>
     <n v="857751"/>
     <n v="447"/>
-    <n v="17191.22"/>
+    <x v="47"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22281,7 +23576,7 @@
     <x v="0"/>
     <n v="823918"/>
     <n v="346"/>
-    <n v="15709.96"/>
+    <x v="48"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22295,7 +23590,7 @@
     <x v="0"/>
     <n v="844941"/>
     <n v="506"/>
-    <n v="8997.74"/>
+    <x v="49"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22309,7 +23604,7 @@
     <x v="0"/>
     <n v="808619"/>
     <n v="452"/>
-    <n v="16873.3"/>
+    <x v="50"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22323,7 +23618,7 @@
     <x v="0"/>
     <n v="781020"/>
     <n v="663"/>
-    <n v="14125.44"/>
+    <x v="51"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22337,7 +23632,7 @@
     <x v="1"/>
     <n v="783652"/>
     <n v="17087"/>
-    <n v="16452.66"/>
+    <x v="52"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22351,7 +23646,7 @@
     <x v="1"/>
     <n v="725193"/>
     <n v="15920"/>
-    <n v="12956.29"/>
+    <x v="53"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22365,7 +23660,7 @@
     <x v="1"/>
     <n v="790142"/>
     <n v="17304"/>
-    <n v="10705.91"/>
+    <x v="54"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22379,7 +23674,7 @@
     <x v="1"/>
     <n v="927114"/>
     <n v="20067"/>
-    <n v="15327.13"/>
+    <x v="55"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22393,7 +23688,7 @@
     <x v="1"/>
     <n v="755613"/>
     <n v="16612"/>
-    <n v="10771.59"/>
+    <x v="56"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22407,7 +23702,7 @@
     <x v="1"/>
     <n v="859593"/>
     <n v="18628"/>
-    <n v="10980.16"/>
+    <x v="57"/>
     <x v="1"/>
     <x v="0"/>
   </r>
@@ -22421,7 +23716,7 @@
     <x v="1"/>
     <n v="904047"/>
     <n v="19636"/>
-    <n v="18210.849999999999"/>
+    <x v="58"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -22435,7 +23730,7 @@
     <x v="1"/>
     <n v="1038908"/>
     <n v="22423"/>
-    <n v="23274.76"/>
+    <x v="59"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -22449,7 +23744,7 @@
     <x v="1"/>
     <n v="1022028"/>
     <n v="22212"/>
-    <n v="27632"/>
+    <x v="60"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -22463,7 +23758,7 @@
     <x v="0"/>
     <n v="1034551"/>
     <n v="664"/>
-    <n v="22605.97"/>
+    <x v="61"/>
     <x v="2"/>
     <x v="1"/>
   </r>
@@ -22477,7 +23772,7 @@
     <x v="0"/>
     <n v="955336"/>
     <n v="643"/>
-    <n v="19480.72"/>
+    <x v="62"/>
     <x v="2"/>
     <x v="1"/>
   </r>
@@ -22491,7 +23786,7 @@
     <x v="0"/>
     <n v="881683"/>
     <n v="339"/>
-    <n v="12939.95"/>
+    <x v="63"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22505,7 +23800,7 @@
     <x v="0"/>
     <n v="823720"/>
     <n v="530"/>
-    <n v="9937.0499999999993"/>
+    <x v="64"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22519,7 +23814,7 @@
     <x v="0"/>
     <n v="818189"/>
     <n v="364"/>
-    <n v="16725.599999999999"/>
+    <x v="65"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22533,7 +23828,7 @@
     <x v="0"/>
     <n v="792217"/>
     <n v="258"/>
-    <n v="7997.55"/>
+    <x v="66"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22547,7 +23842,7 @@
     <x v="0"/>
     <n v="800127"/>
     <n v="282"/>
-    <n v="15161"/>
+    <x v="67"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22561,7 +23856,7 @@
     <x v="0"/>
     <n v="835382"/>
     <n v="539"/>
-    <n v="18756.37"/>
+    <x v="68"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22575,7 +23870,7 @@
     <x v="0"/>
     <n v="852109"/>
     <n v="334"/>
-    <n v="12848.67"/>
+    <x v="69"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22589,7 +23884,7 @@
     <x v="0"/>
     <n v="787553"/>
     <n v="230"/>
-    <n v="14631.61"/>
+    <x v="70"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22603,7 +23898,7 @@
     <x v="0"/>
     <n v="905062"/>
     <n v="348"/>
-    <n v="8775.76"/>
+    <x v="71"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22617,7 +23912,7 @@
     <x v="0"/>
     <n v="813236"/>
     <n v="484"/>
-    <n v="11984.75"/>
+    <x v="72"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22631,7 +23926,7 @@
     <x v="0"/>
     <n v="937516"/>
     <n v="513"/>
-    <n v="18536.55"/>
+    <x v="73"/>
     <x v="2"/>
     <x v="1"/>
   </r>
@@ -22645,7 +23940,7 @@
     <x v="0"/>
     <n v="877768"/>
     <n v="362"/>
-    <n v="19386.330000000002"/>
+    <x v="74"/>
     <x v="2"/>
     <x v="1"/>
   </r>
@@ -22659,7 +23954,7 @@
     <x v="0"/>
     <n v="860541"/>
     <n v="425"/>
-    <n v="11157.09"/>
+    <x v="75"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22673,7 +23968,7 @@
     <x v="0"/>
     <n v="965025"/>
     <n v="322"/>
-    <n v="13969.69"/>
+    <x v="76"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22687,7 +23982,7 @@
     <x v="0"/>
     <n v="898558"/>
     <n v="528"/>
-    <n v="16714.77"/>
+    <x v="77"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22701,7 +23996,7 @@
     <x v="0"/>
     <n v="899716"/>
     <n v="492"/>
-    <n v="17548.259999999998"/>
+    <x v="78"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22715,7 +24010,7 @@
     <x v="0"/>
     <n v="882274"/>
     <n v="419"/>
-    <n v="15639.11"/>
+    <x v="79"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22729,7 +24024,7 @@
     <x v="0"/>
     <n v="885669"/>
     <n v="361"/>
-    <n v="11557.4"/>
+    <x v="80"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22743,7 +24038,7 @@
     <x v="0"/>
     <n v="937054"/>
     <n v="362"/>
-    <n v="15886.39"/>
+    <x v="81"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22757,7 +24052,7 @@
     <x v="0"/>
     <n v="837373"/>
     <n v="465"/>
-    <n v="13530.6"/>
+    <x v="82"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22771,7 +24066,7 @@
     <x v="0"/>
     <n v="957807"/>
     <n v="214"/>
-    <n v="12555.62"/>
+    <x v="83"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22785,7 +24080,7 @@
     <x v="0"/>
     <n v="867577"/>
     <n v="355"/>
-    <n v="12430.53"/>
+    <x v="84"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22799,7 +24094,7 @@
     <x v="0"/>
     <n v="893755"/>
     <n v="455"/>
-    <n v="14133.47"/>
+    <x v="85"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22813,7 +24108,7 @@
     <x v="0"/>
     <n v="957922"/>
     <n v="317"/>
-    <n v="13710.89"/>
+    <x v="86"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22827,7 +24122,7 @@
     <x v="0"/>
     <n v="906563"/>
     <n v="274"/>
-    <n v="11942.76"/>
+    <x v="87"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22841,7 +24136,7 @@
     <x v="0"/>
     <n v="925230"/>
     <n v="336"/>
-    <n v="7640.62"/>
+    <x v="88"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22855,7 +24150,7 @@
     <x v="0"/>
     <n v="928928"/>
     <n v="408"/>
-    <n v="10714.07"/>
+    <x v="89"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22869,7 +24164,7 @@
     <x v="0"/>
     <n v="920209"/>
     <n v="511"/>
-    <n v="9990.52"/>
+    <x v="90"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22883,7 +24178,7 @@
     <x v="0"/>
     <n v="978458"/>
     <n v="365"/>
-    <n v="13381.1"/>
+    <x v="91"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22897,7 +24192,7 @@
     <x v="0"/>
     <n v="981241"/>
     <n v="202"/>
-    <n v="5253.94"/>
+    <x v="92"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22911,7 +24206,7 @@
     <x v="0"/>
     <n v="849355"/>
     <n v="296"/>
-    <n v="13465.57"/>
+    <x v="93"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22925,7 +24220,7 @@
     <x v="0"/>
     <n v="947687"/>
     <n v="258"/>
-    <n v="17518.060000000001"/>
+    <x v="94"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22939,7 +24234,7 @@
     <x v="0"/>
     <n v="1004750"/>
     <n v="318"/>
-    <n v="13815.8"/>
+    <x v="95"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22953,7 +24248,7 @@
     <x v="0"/>
     <n v="989286"/>
     <n v="362"/>
-    <n v="10120.23"/>
+    <x v="96"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22967,7 +24262,7 @@
     <x v="0"/>
     <n v="896339"/>
     <n v="266"/>
-    <n v="13269.6"/>
+    <x v="97"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22981,7 +24276,7 @@
     <x v="0"/>
     <n v="914126"/>
     <n v="326"/>
-    <n v="8424.92"/>
+    <x v="98"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -22995,7 +24290,7 @@
     <x v="0"/>
     <n v="938187"/>
     <n v="414"/>
-    <n v="15298.06"/>
+    <x v="99"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -23009,7 +24304,7 @@
     <x v="0"/>
     <n v="1039749"/>
     <n v="229"/>
-    <n v="9957.01"/>
+    <x v="100"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -23023,7 +24318,7 @@
     <x v="0"/>
     <n v="901008"/>
     <n v="240"/>
-    <n v="5668.89"/>
+    <x v="101"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -23037,7 +24332,7 @@
     <x v="0"/>
     <n v="894557"/>
     <n v="310"/>
-    <n v="4534.71"/>
+    <x v="102"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -23051,7 +24346,7 @@
     <x v="0"/>
     <n v="1023448"/>
     <n v="329"/>
-    <n v="12599.5"/>
+    <x v="103"/>
     <x v="2"/>
     <x v="0"/>
   </r>
@@ -23059,8 +24354,634 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFCBC310-5994-4406-BBCF-753AE3AA19BD}" name="PivotTable11" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
-  <location ref="A202:D269" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CA7F0C2-8FE0-41B5-BEAF-5B116CC28D2B}" name="PivotTable12" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="F141:J148" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="10"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of NUM_DON" fld="8" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFD829FD-F237-4B1D-B1F5-84D77350C73F}" name="PivotTable3" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A53:E60" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0">
+      <items count="105">
+        <item x="102"/>
+        <item x="92"/>
+        <item x="101"/>
+        <item x="88"/>
+        <item x="66"/>
+        <item x="98"/>
+        <item x="71"/>
+        <item x="49"/>
+        <item x="64"/>
+        <item x="100"/>
+        <item x="90"/>
+        <item x="96"/>
+        <item x="40"/>
+        <item x="54"/>
+        <item x="89"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="75"/>
+        <item x="80"/>
+        <item x="87"/>
+        <item x="72"/>
+        <item x="32"/>
+        <item x="84"/>
+        <item x="30"/>
+        <item x="15"/>
+        <item x="83"/>
+        <item x="103"/>
+        <item x="69"/>
+        <item x="63"/>
+        <item x="53"/>
+        <item x="97"/>
+        <item x="44"/>
+        <item x="91"/>
+        <item x="93"/>
+        <item x="31"/>
+        <item x="82"/>
+        <item x="86"/>
+        <item x="39"/>
+        <item x="95"/>
+        <item x="76"/>
+        <item x="51"/>
+        <item x="19"/>
+        <item x="85"/>
+        <item x="11"/>
+        <item x="70"/>
+        <item x="27"/>
+        <item x="67"/>
+        <item x="99"/>
+        <item x="45"/>
+        <item x="55"/>
+        <item x="34"/>
+        <item x="79"/>
+        <item x="48"/>
+        <item x="81"/>
+        <item x="18"/>
+        <item x="23"/>
+        <item x="37"/>
+        <item x="52"/>
+        <item x="36"/>
+        <item x="5"/>
+        <item x="77"/>
+        <item x="65"/>
+        <item x="50"/>
+        <item x="41"/>
+        <item x="0"/>
+        <item x="47"/>
+        <item x="33"/>
+        <item x="94"/>
+        <item x="78"/>
+        <item x="46"/>
+        <item x="35"/>
+        <item x="22"/>
+        <item x="58"/>
+        <item x="24"/>
+        <item x="73"/>
+        <item x="3"/>
+        <item x="21"/>
+        <item x="68"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="74"/>
+        <item x="62"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="38"/>
+        <item x="61"/>
+        <item x="59"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="60"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="10"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of SUM_DON (EUR)" fld="9" subtotal="average" baseField="0" baseItem="1662414880"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="38">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="9">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39D6E336-FDCF-4127-BDF7-DE16870C2C5F}" name="PivotTable2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A34:E48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="10"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of SUM_DON (EUR)" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="35">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFCBC310-5994-4406-BBCF-753AE3AA19BD}" name="PivotTable11" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+  <location ref="A205:D272" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
@@ -23332,7 +25253,7 @@
     <dataField name="Average of SUM_DON (EUR)" fld="9" subtotal="average" baseField="0" baseItem="5"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -23374,186 +25295,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39D6E336-FDCF-4127-BDF7-DE16870C2C5F}" name="PivotTable2" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A34:E48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="10"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of SUM_DON (EUR)" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="22">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB2F3DD-79BA-4106-9DC5-31E2739658C5}" name="PivotTable10" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A182:D196" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB2F3DD-79BA-4106-9DC5-31E2739658C5}" name="PivotTable10" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A185:D199" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
@@ -23652,7 +25396,7 @@
     <dataField name="Average of SUM_DON (EUR)" fld="9" subtotal="average" baseField="0" baseItem="5"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="18">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -23712,9 +25456,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBEB6A5D-7B29-426B-BA74-BFF4E07C5506}" name="PivotTable9" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A165:B178" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBEB6A5D-7B29-426B-BA74-BFF4E07C5506}" name="PivotTable9" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A168:B181" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
@@ -23796,7 +25540,7 @@
     <dataField name="Average of NUM_DON" fld="8" subtotal="average" baseField="0" baseItem="8"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="19">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -23823,8 +25567,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E878AE-DE61-4AB3-B453-3E2107BDAC2F}" name="PivotTable8" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E878AE-DE61-4AB3-B453-3E2107BDAC2F}" name="PivotTable8" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A18:E32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -23928,7 +25672,7 @@
     <dataField name="Sum of SUM_DON (EUR)" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="20">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -24009,8 +25753,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DD6A682-7B94-44B1-8477-F934C5DDDFF0}" name="PivotTable7" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DD6A682-7B94-44B1-8477-F934C5DDDFF0}" name="PivotTable7" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A2:E16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -24114,7 +25858,7 @@
     <dataField name="Sum of NUM_DON" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="21">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -24159,9 +25903,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A324A8-3999-4529-978C-113C5A57054E}" name="PivotTable6" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="A148:E162" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A324A8-3999-4529-978C-113C5A57054E}" name="PivotTable6" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="A151:E165" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
@@ -24264,7 +26008,7 @@
     <dataField name="Average of PROMO" fld="5" subtotal="average" baseField="0" baseItem="6"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="23">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -24354,9 +26098,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE61F021-BDB1-4951-806E-D41C0E9EB4A7}" name="PivotTable5" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A138:D145" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE61F021-BDB1-4951-806E-D41C0E9EB4A7}" name="PivotTable5" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A141:D148" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
@@ -24447,7 +26191,7 @@
     <dataField name="Average of AK_NUM_SALES" fld="7" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="24">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -24501,9 +26245,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7D32551-90D7-4C4E-959E-34BB20666E2D}" name="PivotTable4" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A68:E135" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7D32551-90D7-4C4E-959E-34BB20666E2D}" name="PivotTable4" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A71:E138" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
@@ -24775,7 +26519,7 @@
     <dataField name="Sum of SUM_DON (EUR)" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="25">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -24928,215 +26672,21 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFD829FD-F237-4B1D-B1F5-84D77350C73F}" name="PivotTable3" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A50:E57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="10"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of SUM_DON (EUR)" fld="9" subtotal="average" baseField="0" baseItem="1662414880"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="26">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="9">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3303D384-2449-465E-A421-05E31D9A8A45}" name="Table1" displayName="Table1" ref="A1:L105" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3303D384-2449-465E-A421-05E31D9A8A45}" name="Table1" displayName="Table1" ref="A1:L105" totalsRowShown="0" headerRowDxfId="39">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{34682CCB-C981-46F2-9FAB-1014E3EC29EE}" name="MONTH" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{84AC2BC4-8EEB-4389-9381-09CC5A393A84}" name="WEEKMONTH" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{C0AECE6F-FB5F-4CD4-8FAB-1A0CC54890A1}" name="WEEK" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{26F30E93-2641-44C3-BC8F-DF35E8AEA0F3}" name="XMAS" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{FFDD0E0B-773A-4B1D-BF4B-2F05C0C4EC5F}" name="EASTER" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{B6239409-9998-48C5-881F-7D0ADAD4E690}" name="PROMO" dataDxfId="32" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{85875F25-AEC8-413F-AEF8-4116312A9BB9}" name="AK_PARTNERSHIP" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{0FDD3571-0138-47B6-ABE7-2A04D7249C17}" name="AK_NUM_SALES" dataDxfId="30" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{14E25EA9-9004-40FA-B099-87B9475BFECF}" name="NUM_DON" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{C6D0D30A-FB06-49BA-9C8B-A3C5B836EF24}" name="SUM_DON (EUR)" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{34682CCB-C981-46F2-9FAB-1014E3EC29EE}" name="MONTH" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{84AC2BC4-8EEB-4389-9381-09CC5A393A84}" name="WEEKMONTH" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{C0AECE6F-FB5F-4CD4-8FAB-1A0CC54890A1}" name="WEEK" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{26F30E93-2641-44C3-BC8F-DF35E8AEA0F3}" name="XMAS" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{FFDD0E0B-773A-4B1D-BF4B-2F05C0C4EC5F}" name="EASTER" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{B6239409-9998-48C5-881F-7D0ADAD4E690}" name="PROMO" dataDxfId="44" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{85875F25-AEC8-413F-AEF8-4116312A9BB9}" name="AK_PARTNERSHIP" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{0FDD3571-0138-47B6-ABE7-2A04D7249C17}" name="AK_NUM_SALES" dataDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{14E25EA9-9004-40FA-B099-87B9475BFECF}" name="NUM_DON" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{C6D0D30A-FB06-49BA-9C8B-A3C5B836EF24}" name="SUM_DON (EUR)" dataDxfId="40"/>
     <tableColumn id="11" xr3:uid="{EB497BD0-D427-48DC-9F4D-F6D9CFDA21A2}" name="YEAR"/>
-    <tableColumn id="12" xr3:uid="{4E7AD30C-97CA-4056-8EF0-16C9A7C530B8}" name="Season" dataDxfId="17">
+    <tableColumn id="12" xr3:uid="{4E7AD30C-97CA-4056-8EF0-16C9A7C530B8}" name="Season" dataDxfId="31">
       <calculatedColumnFormula>IF(OR(Table1[[#This Row],[XMAS]]=1,Table1[[#This Row],[EASTER]]=1),1,"-")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25465,17 +27015,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC8E3C-D79D-4D0B-A4F8-E2617AB488D1}">
-  <dimension ref="A2:G269"/>
+  <dimension ref="A2:J272"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A193" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D210" sqref="D209:D210"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -26144,2618 +27701,2750 @@
         <v>1669361.4100000001</v>
       </c>
     </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+    </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B54">
         <v>1</v>
       </c>
-      <c r="C51">
+      <c r="C54">
         <v>2</v>
       </c>
-      <c r="D51">
+      <c r="D54">
         <v>3</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E54" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="15">
-        <v>1</v>
-      </c>
-      <c r="B52" s="16">
-        <v>20878.580000000002</v>
-      </c>
-      <c r="C52" s="16">
-        <v>17463.169166666667</v>
-      </c>
-      <c r="D52" s="16">
-        <v>15266.045000000002</v>
-      </c>
-      <c r="E52" s="16">
-        <v>16832.318333333329</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="15">
-        <v>2</v>
-      </c>
-      <c r="B53" s="16">
-        <v>18788.965</v>
-      </c>
-      <c r="C53" s="16">
-        <v>16134.125833333334</v>
-      </c>
-      <c r="D53" s="16">
-        <v>12267.675999999999</v>
-      </c>
-      <c r="E53" s="16">
-        <v>14744.341666666667</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="15">
-        <v>3</v>
-      </c>
-      <c r="B54" s="16">
-        <v>24814.53</v>
-      </c>
-      <c r="C54" s="16">
-        <v>14712.081666666665</v>
-      </c>
-      <c r="D54" s="16">
-        <v>11093.223000000002</v>
-      </c>
-      <c r="E54" s="16">
-        <v>14046.094583333337</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B55" s="16">
-        <v>22060.13</v>
+        <v>20878.580000000002</v>
       </c>
       <c r="C55" s="16">
-        <v>19520.040833333336</v>
+        <v>17463.169166666667</v>
       </c>
       <c r="D55" s="16">
-        <v>13392.427000000001</v>
+        <v>15266.045000000002</v>
       </c>
       <c r="E55" s="16">
-        <v>17178.5425</v>
+        <v>16832.318333333329</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
+        <v>2</v>
+      </c>
+      <c r="B56" s="16">
+        <v>18788.965</v>
+      </c>
+      <c r="C56" s="16">
+        <v>16134.125833333334</v>
+      </c>
+      <c r="D56" s="16">
+        <v>12267.675999999999</v>
+      </c>
+      <c r="E56" s="16">
+        <v>14744.341666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="15">
+        <v>3</v>
+      </c>
+      <c r="B57" s="16">
+        <v>24814.53</v>
+      </c>
+      <c r="C57" s="16">
+        <v>14712.081666666665</v>
+      </c>
+      <c r="D57" s="16">
+        <v>11093.223000000002</v>
+      </c>
+      <c r="E57" s="16">
+        <v>14046.094583333337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="15">
+        <v>4</v>
+      </c>
+      <c r="B58" s="16">
+        <v>22060.13</v>
+      </c>
+      <c r="C58" s="16">
+        <v>19520.040833333336</v>
+      </c>
+      <c r="D58" s="16">
+        <v>13392.427000000001</v>
+      </c>
+      <c r="E58" s="16">
+        <v>17178.5425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="15">
         <v>5</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B59" s="16">
         <v>34745.370000000003</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C59" s="16">
         <v>21345.39</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D59" s="16">
         <v>14001.116666666667</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E59" s="16">
         <v>20266.285</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B60" s="16">
         <v>23092.197777777779</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C60" s="16">
         <v>17294.895576923078</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D60" s="16">
         <v>13074.350232558143</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E60" s="16">
         <v>16051.552019230769</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B71" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B69">
+      <c r="B72">
         <v>1</v>
       </c>
-      <c r="C69">
+      <c r="C72">
         <v>2</v>
       </c>
-      <c r="D69">
+      <c r="D72">
         <v>3</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16">
-        <v>89420.02</v>
-      </c>
-      <c r="D70" s="16">
-        <v>64963.69</v>
-      </c>
-      <c r="E70" s="16">
-        <v>154383.71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="17">
-        <v>1</v>
-      </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16">
-        <v>25693.37</v>
-      </c>
-      <c r="D71" s="16">
-        <v>22605.97</v>
-      </c>
-      <c r="E71" s="16">
-        <v>48299.34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="17">
-        <v>2</v>
-      </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16">
-        <v>29559.93</v>
-      </c>
-      <c r="D72" s="16">
-        <v>19480.72</v>
-      </c>
-      <c r="E72" s="16">
-        <v>49040.65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="17">
-        <v>3</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="16">
-        <v>14512.41</v>
+        <v>89420.02</v>
       </c>
       <c r="D73" s="16">
-        <v>12939.95</v>
+        <v>64963.69</v>
       </c>
       <c r="E73" s="16">
-        <v>27452.36</v>
+        <v>154383.71</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="16">
-        <v>19654.310000000001</v>
+        <v>25693.37</v>
       </c>
       <c r="D74" s="16">
-        <v>9937.0499999999993</v>
+        <v>22605.97</v>
       </c>
       <c r="E74" s="16">
-        <v>29591.360000000001</v>
+        <v>48299.34</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>9</v>
+      <c r="A75" s="17">
+        <v>2</v>
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="16">
-        <v>76996.09</v>
+        <v>29559.93</v>
       </c>
       <c r="D75" s="16">
-        <v>58640.51999999999</v>
+        <v>19480.72</v>
       </c>
       <c r="E75" s="16">
-        <v>135636.60999999999</v>
+        <v>49040.65</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="16">
-        <v>20011.91</v>
+        <v>14512.41</v>
       </c>
       <c r="D76" s="16">
-        <v>16725.599999999999</v>
+        <v>12939.95</v>
       </c>
       <c r="E76" s="16">
-        <v>36737.509999999995</v>
+        <v>27452.36</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="16">
-        <v>20451.95</v>
+        <v>19654.310000000001</v>
       </c>
       <c r="D77" s="16">
-        <v>7997.55</v>
+        <v>9937.0499999999993</v>
       </c>
       <c r="E77" s="16">
-        <v>28449.5</v>
+        <v>29591.360000000001</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
-        <v>3</v>
+      <c r="A78" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="16">
-        <v>12532.43</v>
+        <v>76996.09</v>
       </c>
       <c r="D78" s="16">
-        <v>15161</v>
+        <v>58640.51999999999</v>
       </c>
       <c r="E78" s="16">
-        <v>27693.43</v>
+        <v>135636.60999999999</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="16">
-        <v>23999.8</v>
+        <v>20011.91</v>
       </c>
       <c r="D79" s="16">
-        <v>18756.37</v>
+        <v>16725.599999999999</v>
       </c>
       <c r="E79" s="16">
-        <v>42756.17</v>
+        <v>36737.509999999995</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>10</v>
+      <c r="A80" s="17">
+        <v>2</v>
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="16">
-        <v>74929.19</v>
+        <v>20451.95</v>
       </c>
       <c r="D80" s="16">
-        <v>48240.79</v>
+        <v>7997.55</v>
       </c>
       <c r="E80" s="16">
-        <v>123169.98000000001</v>
+        <v>28449.5</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="16">
-        <v>20335.8</v>
+        <v>12532.43</v>
       </c>
       <c r="D81" s="16">
-        <v>12848.67</v>
+        <v>15161</v>
       </c>
       <c r="E81" s="16">
-        <v>33184.47</v>
+        <v>27693.43</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16">
-        <v>15937.07</v>
+        <v>23999.8</v>
       </c>
       <c r="D82" s="16">
-        <v>14631.61</v>
+        <v>18756.37</v>
       </c>
       <c r="E82" s="16">
-        <v>30568.68</v>
+        <v>42756.17</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="17">
-        <v>3</v>
+      <c r="A83" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="16">
-        <v>14128.64</v>
+        <v>74929.19</v>
       </c>
       <c r="D83" s="16">
-        <v>8775.76</v>
+        <v>48240.79</v>
       </c>
       <c r="E83" s="16">
-        <v>22904.400000000001</v>
+        <v>123169.98000000001</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="16">
-        <v>24527.68</v>
+        <v>20335.8</v>
       </c>
       <c r="D84" s="16">
-        <v>11984.75</v>
+        <v>12848.67</v>
       </c>
       <c r="E84" s="16">
-        <v>36512.43</v>
+        <v>33184.47</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
-        <v>11</v>
+      <c r="A85" s="17">
+        <v>2</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="16">
-        <v>92620.459999999992</v>
+        <v>15937.07</v>
       </c>
       <c r="D85" s="16">
-        <v>79764.430000000008</v>
+        <v>14631.61</v>
       </c>
       <c r="E85" s="16">
-        <v>172384.88999999998</v>
+        <v>30568.68</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="16">
-        <v>18661.169999999998</v>
+        <v>14128.64</v>
       </c>
       <c r="D86" s="16">
-        <v>18536.55</v>
+        <v>8775.76</v>
       </c>
       <c r="E86" s="16">
-        <v>37197.72</v>
+        <v>22904.400000000001</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="16">
-        <v>18074.46</v>
+        <v>24527.68</v>
       </c>
       <c r="D87" s="16">
-        <v>19386.330000000002</v>
+        <v>11984.75</v>
       </c>
       <c r="E87" s="16">
-        <v>37460.79</v>
+        <v>36512.43</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="17">
-        <v>3</v>
+      <c r="A88" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="16">
-        <v>16205.53</v>
+        <v>92620.459999999992</v>
       </c>
       <c r="D88" s="16">
-        <v>11157.09</v>
+        <v>79764.430000000008</v>
       </c>
       <c r="E88" s="16">
-        <v>27362.620000000003</v>
+        <v>172384.88999999998</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="16">
-        <v>18276.169999999998</v>
+        <v>18661.169999999998</v>
       </c>
       <c r="D89" s="16">
-        <v>13969.69</v>
+        <v>18536.55</v>
       </c>
       <c r="E89" s="16">
-        <v>32245.86</v>
+        <v>37197.72</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="16">
-        <v>21403.13</v>
+        <v>18074.46</v>
       </c>
       <c r="D90" s="16">
-        <v>16714.77</v>
+        <v>19386.330000000002</v>
       </c>
       <c r="E90" s="16">
-        <v>38117.9</v>
+        <v>37460.79</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
-        <v>12</v>
+      <c r="A91" s="17">
+        <v>3</v>
       </c>
       <c r="B91" s="16"/>
       <c r="C91" s="16">
-        <v>76145.87</v>
+        <v>16205.53</v>
       </c>
       <c r="D91" s="16">
-        <v>60631.159999999996</v>
+        <v>11157.09</v>
       </c>
       <c r="E91" s="16">
-        <v>136777.03</v>
+        <v>27362.620000000003</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="16">
-        <v>19952.27</v>
+        <v>18276.169999999998</v>
       </c>
       <c r="D92" s="16">
-        <v>17548.259999999998</v>
+        <v>13969.69</v>
       </c>
       <c r="E92" s="16">
-        <v>37500.53</v>
+        <v>32245.86</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="16">
-        <v>14710.12</v>
+        <v>21403.13</v>
       </c>
       <c r="D93" s="16">
-        <v>15639.11</v>
+        <v>16714.77</v>
       </c>
       <c r="E93" s="16">
-        <v>30349.230000000003</v>
+        <v>38117.9</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="17">
-        <v>3</v>
+      <c r="A94" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="16">
-        <v>19818.41</v>
+        <v>76145.87</v>
       </c>
       <c r="D94" s="16">
-        <v>11557.4</v>
+        <v>60631.159999999996</v>
       </c>
       <c r="E94" s="16">
-        <v>31375.809999999998</v>
+        <v>136777.03</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="16">
-        <v>21665.07</v>
+        <v>19952.27</v>
       </c>
       <c r="D95" s="16">
-        <v>15886.39</v>
+        <v>17548.259999999998</v>
       </c>
       <c r="E95" s="16">
-        <v>37551.46</v>
+        <v>37500.53</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
-        <v>13</v>
+      <c r="A96" s="17">
+        <v>2</v>
       </c>
       <c r="B96" s="16"/>
       <c r="C96" s="16">
-        <v>55927.95</v>
+        <v>14710.12</v>
       </c>
       <c r="D96" s="16">
-        <v>52650.22</v>
+        <v>15639.11</v>
       </c>
       <c r="E96" s="16">
-        <v>108578.17000000001</v>
+        <v>30349.230000000003</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="16">
-        <v>12509.58</v>
+        <v>19818.41</v>
       </c>
       <c r="D97" s="16">
-        <v>13530.6</v>
+        <v>11557.4</v>
       </c>
       <c r="E97" s="16">
-        <v>26040.18</v>
+        <v>31375.809999999998</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="16">
-        <v>13494.11</v>
+        <v>21665.07</v>
       </c>
       <c r="D98" s="16">
-        <v>12555.62</v>
+        <v>15886.39</v>
       </c>
       <c r="E98" s="16">
-        <v>26049.730000000003</v>
+        <v>37551.46</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="17">
-        <v>3</v>
+      <c r="A99" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="16">
-        <v>12417.45</v>
+        <v>55927.95</v>
       </c>
       <c r="D99" s="16">
-        <v>12430.53</v>
+        <v>52650.22</v>
       </c>
       <c r="E99" s="16">
-        <v>24847.980000000003</v>
+        <v>108578.17000000001</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="16">
-        <v>17506.810000000001</v>
+        <v>12509.58</v>
       </c>
       <c r="D100" s="16">
-        <v>14133.47</v>
+        <v>13530.6</v>
       </c>
       <c r="E100" s="16">
-        <v>31640.28</v>
+        <v>26040.18</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="15" t="s">
-        <v>14</v>
+      <c r="A101" s="17">
+        <v>2</v>
       </c>
       <c r="B101" s="16"/>
       <c r="C101" s="16">
-        <v>88714.64</v>
+        <v>13494.11</v>
       </c>
       <c r="D101" s="16">
-        <v>53998.86</v>
+        <v>12555.62</v>
       </c>
       <c r="E101" s="16">
-        <v>142713.5</v>
+        <v>26049.730000000003</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="16">
-        <v>15375.38</v>
+        <v>12417.45</v>
       </c>
       <c r="D102" s="16">
-        <v>13710.89</v>
+        <v>12430.53</v>
       </c>
       <c r="E102" s="16">
-        <v>29086.269999999997</v>
+        <v>24847.980000000003</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="16">
-        <v>18013.060000000001</v>
+        <v>17506.810000000001</v>
       </c>
       <c r="D103" s="16">
-        <v>11942.76</v>
+        <v>14133.47</v>
       </c>
       <c r="E103" s="16">
-        <v>29955.82</v>
+        <v>31640.28</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="17">
-        <v>3</v>
+      <c r="A104" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="16">
-        <v>16668.89</v>
+        <v>88714.64</v>
       </c>
       <c r="D104" s="16">
-        <v>7640.62</v>
+        <v>53998.86</v>
       </c>
       <c r="E104" s="16">
-        <v>24309.51</v>
+        <v>142713.5</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B105" s="16"/>
       <c r="C105" s="16">
-        <v>16436.32</v>
+        <v>15375.38</v>
       </c>
       <c r="D105" s="16">
-        <v>10714.07</v>
+        <v>13710.89</v>
       </c>
       <c r="E105" s="16">
-        <v>27150.39</v>
+        <v>29086.269999999997</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B106" s="16"/>
       <c r="C106" s="16">
-        <v>22220.99</v>
+        <v>18013.060000000001</v>
       </c>
       <c r="D106" s="16">
-        <v>9990.52</v>
+        <v>11942.76</v>
       </c>
       <c r="E106" s="16">
-        <v>32211.510000000002</v>
+        <v>29955.82</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
-        <v>15</v>
+      <c r="A107" s="17">
+        <v>3</v>
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="16">
-        <v>60249.74</v>
+        <v>16668.89</v>
       </c>
       <c r="D107" s="16">
-        <v>49618.67</v>
+        <v>7640.62</v>
       </c>
       <c r="E107" s="16">
-        <v>109868.41</v>
+        <v>24309.51</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B108" s="16"/>
       <c r="C108" s="16">
-        <v>13801.02</v>
+        <v>16436.32</v>
       </c>
       <c r="D108" s="16">
-        <v>13381.1</v>
+        <v>10714.07</v>
       </c>
       <c r="E108" s="16">
-        <v>27182.120000000003</v>
+        <v>27150.39</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="16">
-        <v>10378.799999999999</v>
+        <v>22220.99</v>
       </c>
       <c r="D109" s="16">
-        <v>5253.94</v>
+        <v>9990.52</v>
       </c>
       <c r="E109" s="16">
-        <v>15632.739999999998</v>
+        <v>32211.510000000002</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="17">
-        <v>3</v>
+      <c r="A110" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="B110" s="16"/>
       <c r="C110" s="16">
-        <v>17030.32</v>
+        <v>60249.74</v>
       </c>
       <c r="D110" s="16">
-        <v>13465.57</v>
+        <v>49618.67</v>
       </c>
       <c r="E110" s="16">
-        <v>30495.89</v>
+        <v>109868.41</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B111" s="16"/>
       <c r="C111" s="16">
-        <v>19039.599999999999</v>
+        <v>13801.02</v>
       </c>
       <c r="D111" s="16">
-        <v>17518.060000000001</v>
+        <v>13381.1</v>
       </c>
       <c r="E111" s="16">
-        <v>36557.660000000003</v>
+        <v>27182.120000000003</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
-        <v>16</v>
+      <c r="A112" s="17">
+        <v>2</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="16">
-        <v>65121.600000000006</v>
+        <v>10378.799999999999</v>
       </c>
       <c r="D112" s="16">
-        <v>60928.609999999993</v>
+        <v>5253.94</v>
       </c>
       <c r="E112" s="16">
-        <v>126050.20999999999</v>
+        <v>15632.739999999998</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="16">
-        <v>18802.060000000001</v>
+        <v>17030.32</v>
       </c>
       <c r="D113" s="16">
-        <v>13815.8</v>
+        <v>13465.57</v>
       </c>
       <c r="E113" s="16">
-        <v>32617.86</v>
+        <v>30495.89</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B114" s="16"/>
       <c r="C114" s="16">
-        <v>13343.6</v>
+        <v>19039.599999999999</v>
       </c>
       <c r="D114" s="16">
-        <v>10120.23</v>
+        <v>17518.060000000001</v>
       </c>
       <c r="E114" s="16">
-        <v>23463.83</v>
+        <v>36557.660000000003</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="17">
-        <v>3</v>
+      <c r="A115" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B115" s="16"/>
       <c r="C115" s="16">
-        <v>15316.4</v>
+        <v>65121.600000000006</v>
       </c>
       <c r="D115" s="16">
-        <v>13269.6</v>
+        <v>60928.609999999993</v>
       </c>
       <c r="E115" s="16">
-        <v>28586</v>
+        <v>126050.20999999999</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B116" s="16"/>
       <c r="C116" s="16">
-        <v>17659.54</v>
+        <v>18802.060000000001</v>
       </c>
       <c r="D116" s="16">
-        <v>8424.92</v>
+        <v>13815.8</v>
       </c>
       <c r="E116" s="16">
-        <v>26084.46</v>
+        <v>32617.86</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
+      <c r="C117" s="16">
+        <v>13343.6</v>
+      </c>
       <c r="D117" s="16">
-        <v>15298.06</v>
+        <v>10120.23</v>
       </c>
       <c r="E117" s="16">
-        <v>15298.06</v>
+        <v>23463.83</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
-        <v>17</v>
+      <c r="A118" s="17">
+        <v>3</v>
       </c>
       <c r="B118" s="16"/>
       <c r="C118" s="16">
-        <v>72897.66</v>
+        <v>15316.4</v>
       </c>
       <c r="D118" s="16">
-        <v>32760.11</v>
+        <v>13269.6</v>
       </c>
       <c r="E118" s="16">
-        <v>105657.77</v>
+        <v>28586</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B119" s="16"/>
       <c r="C119" s="16">
-        <v>17191.22</v>
+        <v>17659.54</v>
       </c>
       <c r="D119" s="16">
-        <v>9957.01</v>
+        <v>8424.92</v>
       </c>
       <c r="E119" s="16">
-        <v>27148.230000000003</v>
+        <v>26084.46</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B120" s="16"/>
-      <c r="C120" s="16">
-        <v>15709.96</v>
-      </c>
+      <c r="C120" s="16"/>
       <c r="D120" s="16">
-        <v>5668.89</v>
+        <v>15298.06</v>
       </c>
       <c r="E120" s="16">
-        <v>21378.85</v>
+        <v>15298.06</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="17">
-        <v>3</v>
+      <c r="A121" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B121" s="16"/>
       <c r="C121" s="16">
-        <v>8997.74</v>
+        <v>72897.66</v>
       </c>
       <c r="D121" s="16">
-        <v>4534.71</v>
+        <v>32760.11</v>
       </c>
       <c r="E121" s="16">
-        <v>13532.45</v>
+        <v>105657.77</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="16">
-        <v>16873.3</v>
+        <v>17191.22</v>
       </c>
       <c r="D122" s="16">
-        <v>12599.5</v>
+        <v>9957.01</v>
       </c>
       <c r="E122" s="16">
-        <v>29472.799999999999</v>
+        <v>27148.230000000003</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B123" s="16"/>
       <c r="C123" s="16">
-        <v>14125.44</v>
-      </c>
-      <c r="D123" s="16"/>
+        <v>15709.96</v>
+      </c>
+      <c r="D123" s="16">
+        <v>5668.89</v>
+      </c>
       <c r="E123" s="16">
-        <v>14125.44</v>
+        <v>21378.85</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="16">
-        <v>79898.87</v>
-      </c>
+      <c r="A124" s="17">
+        <v>3</v>
+      </c>
+      <c r="B124" s="16"/>
       <c r="C124" s="16">
-        <v>55441.99</v>
-      </c>
-      <c r="D124" s="16"/>
+        <v>8997.74</v>
+      </c>
+      <c r="D124" s="16">
+        <v>4534.71</v>
+      </c>
       <c r="E124" s="16">
-        <v>135340.86000000002</v>
+        <v>13532.45</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="17">
-        <v>1</v>
-      </c>
-      <c r="B125" s="16">
-        <v>17089.919999999998</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B125" s="16"/>
       <c r="C125" s="16">
-        <v>16452.66</v>
-      </c>
-      <c r="D125" s="16"/>
+        <v>16873.3</v>
+      </c>
+      <c r="D125" s="16">
+        <v>12599.5</v>
+      </c>
       <c r="E125" s="16">
-        <v>33542.58</v>
+        <v>29472.799999999999</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="17">
-        <v>2</v>
-      </c>
-      <c r="B126" s="16">
-        <v>20883.23</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B126" s="16"/>
       <c r="C126" s="16">
-        <v>12956.29</v>
+        <v>14125.44</v>
       </c>
       <c r="D126" s="16"/>
       <c r="E126" s="16">
-        <v>33839.520000000004</v>
+        <v>14125.44</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="17">
-        <v>3</v>
+      <c r="A127" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B127" s="16">
-        <v>23297.34</v>
+        <v>79898.87</v>
       </c>
       <c r="C127" s="16">
-        <v>10705.91</v>
+        <v>55441.99</v>
       </c>
       <c r="D127" s="16"/>
       <c r="E127" s="16">
-        <v>34003.25</v>
+        <v>135340.86000000002</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B128" s="16">
-        <v>18628.38</v>
+        <v>17089.919999999998</v>
       </c>
       <c r="C128" s="16">
-        <v>15327.13</v>
+        <v>16452.66</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="16">
-        <v>33955.51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="15" t="s">
-        <v>7</v>
+        <v>33542.58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="17">
+        <v>2</v>
       </c>
       <c r="B129" s="16">
-        <v>127930.91</v>
+        <v>20883.23</v>
       </c>
       <c r="C129" s="16">
-        <v>90869.36</v>
+        <v>12956.29</v>
       </c>
       <c r="D129" s="16"/>
       <c r="E129" s="16">
-        <v>218800.27000000002</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33839.520000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B130" s="16">
-        <v>24667.24</v>
+        <v>23297.34</v>
       </c>
       <c r="C130" s="16">
-        <v>10771.59</v>
+        <v>10705.91</v>
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="16">
-        <v>35438.83</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34003.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B131" s="16">
-        <v>16694.7</v>
+        <v>18628.38</v>
       </c>
       <c r="C131" s="16">
-        <v>10980.16</v>
+        <v>15327.13</v>
       </c>
       <c r="D131" s="16"/>
       <c r="E131" s="16">
-        <v>27674.86</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="17">
-        <v>3</v>
+        <v>33955.51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="B132" s="16">
-        <v>26331.72</v>
+        <v>127930.91</v>
       </c>
       <c r="C132" s="16">
-        <v>18210.849999999999</v>
+        <v>90869.36</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="16">
-        <v>44542.57</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>218800.27000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B133" s="16">
-        <v>25491.88</v>
+        <v>24667.24</v>
       </c>
       <c r="C133" s="16">
-        <v>23274.76</v>
+        <v>10771.59</v>
       </c>
       <c r="D133" s="16"/>
       <c r="E133" s="16">
-        <v>48766.64</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35438.83</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B134" s="16">
-        <v>34745.370000000003</v>
+        <v>16694.7</v>
       </c>
       <c r="C134" s="16">
-        <v>27632</v>
+        <v>10980.16</v>
       </c>
       <c r="D134" s="16"/>
       <c r="E134" s="16">
+        <v>27674.86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="17">
+        <v>3</v>
+      </c>
+      <c r="B135" s="16">
+        <v>26331.72</v>
+      </c>
+      <c r="C135" s="16">
+        <v>18210.849999999999</v>
+      </c>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16">
+        <v>44542.57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="17">
+        <v>4</v>
+      </c>
+      <c r="B136" s="16">
+        <v>25491.88</v>
+      </c>
+      <c r="C136" s="16">
+        <v>23274.76</v>
+      </c>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16">
+        <v>48766.64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="17">
+        <v>5</v>
+      </c>
+      <c r="B137" s="16">
+        <v>34745.370000000003</v>
+      </c>
+      <c r="C137" s="16">
+        <v>27632</v>
+      </c>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16">
         <v>62377.37</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="15" t="s">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B135" s="16">
+      <c r="B138" s="16">
         <v>207829.78</v>
       </c>
-      <c r="C135" s="16">
+      <c r="C138" s="16">
         <v>899334.57000000007</v>
       </c>
-      <c r="D135" s="16">
+      <c r="D138" s="16">
         <v>562197.05999999994</v>
       </c>
-      <c r="E135" s="16">
+      <c r="E138" s="16">
         <v>1669361.4100000006</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="14" t="s">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B139" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="14" t="s">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B141" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="14" t="s">
+      <c r="F141" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B139">
+      <c r="B142">
         <v>2</v>
       </c>
-      <c r="C139">
+      <c r="C142">
         <v>3</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D142" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="15">
+      <c r="F142" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G142">
         <v>1</v>
       </c>
-      <c r="B140" s="16">
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="J142" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="15">
+        <v>1</v>
+      </c>
+      <c r="B143" s="16">
         <v>770046.4</v>
       </c>
-      <c r="C140" s="16">
+      <c r="C143" s="16">
         <v>936033.3</v>
       </c>
-      <c r="D140" s="16">
+      <c r="D143" s="16">
         <v>853039.85</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="15">
+      <c r="F143" s="15">
+        <v>1</v>
+      </c>
+      <c r="G143" s="16">
+        <v>532.5</v>
+      </c>
+      <c r="H143" s="16">
+        <v>6013.083333333333</v>
+      </c>
+      <c r="I143" s="16">
+        <v>406.1</v>
+      </c>
+      <c r="J143" s="16">
+        <v>3220.125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="15">
         <v>2</v>
       </c>
-      <c r="B141" s="16">
+      <c r="B144" s="16">
         <v>749894.1</v>
       </c>
-      <c r="C141" s="16">
+      <c r="C144" s="16">
         <v>903105.3</v>
       </c>
-      <c r="D141" s="16">
+      <c r="D144" s="16">
         <v>826499.7</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="15">
+      <c r="F144" s="15">
+        <v>2</v>
+      </c>
+      <c r="G144" s="16">
+        <v>550</v>
+      </c>
+      <c r="H144" s="16">
+        <v>5679.25</v>
+      </c>
+      <c r="I144" s="16">
+        <v>320.39999999999998</v>
+      </c>
+      <c r="J144" s="16">
+        <v>3018.9583333333335</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="15">
         <v>3</v>
       </c>
-      <c r="B142" s="16">
+      <c r="B145" s="16">
         <v>759529.2</v>
       </c>
-      <c r="C142" s="16">
+      <c r="C145" s="16">
         <v>876614</v>
       </c>
-      <c r="D142" s="16">
+      <c r="D145" s="16">
         <v>818071.6</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="15">
+      <c r="F145" s="15">
+        <v>3</v>
+      </c>
+      <c r="G145" s="16">
+        <v>696</v>
+      </c>
+      <c r="H145" s="16">
+        <v>6154.166666666667</v>
+      </c>
+      <c r="I145" s="16">
+        <v>331.8</v>
+      </c>
+      <c r="J145" s="16">
+        <v>3273.3333333333335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="15">
         <v>4</v>
       </c>
-      <c r="B143" s="16">
+      <c r="B146" s="16">
         <v>775779.3</v>
       </c>
-      <c r="C143" s="16">
+      <c r="C146" s="16">
         <v>908236.1</v>
       </c>
-      <c r="D143" s="16">
+      <c r="D146" s="16">
         <v>842007.7</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="15">
+      <c r="F146" s="15">
+        <v>4</v>
+      </c>
+      <c r="G146" s="16">
+        <v>779.5</v>
+      </c>
+      <c r="H146" s="16">
+        <v>6703.666666666667</v>
+      </c>
+      <c r="I146" s="16">
+        <v>401.3</v>
+      </c>
+      <c r="J146" s="16">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="15">
         <v>5</v>
       </c>
-      <c r="B144" s="16">
+      <c r="B147" s="16">
         <v>802235.33333333337</v>
       </c>
-      <c r="C144" s="16">
+      <c r="C147" s="16">
         <v>918984.66666666663</v>
       </c>
-      <c r="D144" s="16">
+      <c r="D147" s="16">
         <v>860610</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="15" t="s">
+      <c r="F147" s="15">
+        <v>5</v>
+      </c>
+      <c r="G147" s="16">
+        <v>814</v>
+      </c>
+      <c r="H147" s="16">
+        <v>6021.25</v>
+      </c>
+      <c r="I147" s="16">
+        <v>484.33333333333331</v>
+      </c>
+      <c r="J147" s="16">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="16">
+      <c r="B148" s="16">
         <v>766492.93023255817</v>
       </c>
-      <c r="C145" s="16">
+      <c r="C148" s="16">
         <v>906903.27906976745</v>
       </c>
-      <c r="D145" s="16">
+      <c r="D148" s="16">
         <v>836698.10465116275</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="14" t="s">
+      <c r="F148" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G148" s="16">
+        <v>658.88888888888891</v>
+      </c>
+      <c r="H148" s="16">
+        <v>6128.5961538461543</v>
+      </c>
+      <c r="I148" s="16">
+        <v>373.23255813953489</v>
+      </c>
+      <c r="J148" s="16">
+        <v>3275.6346153846152</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B151" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="14" t="s">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B149">
+      <c r="B152">
         <v>1</v>
       </c>
-      <c r="C149">
+      <c r="C152">
         <v>2</v>
       </c>
-      <c r="D149">
+      <c r="D152">
         <v>3</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E152" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="15" t="s">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="B150" s="16"/>
-      <c r="C150" s="16">
-        <v>2751.25</v>
-      </c>
-      <c r="D150" s="16">
-        <v>3824.25</v>
-      </c>
-      <c r="E150" s="16">
-        <v>3287.75</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B151" s="16"/>
-      <c r="C151" s="16">
-        <v>2596</v>
-      </c>
-      <c r="D151" s="16">
-        <v>4014</v>
-      </c>
-      <c r="E151" s="16">
-        <v>3305</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B152" s="16"/>
-      <c r="C152" s="16">
-        <v>2925.5</v>
-      </c>
-      <c r="D152" s="16">
-        <v>3822.5</v>
-      </c>
-      <c r="E152" s="16">
-        <v>3374</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="B153" s="16"/>
       <c r="C153" s="16">
-        <v>3471.4</v>
+        <v>2751.25</v>
       </c>
       <c r="D153" s="16">
-        <v>3939.6</v>
+        <v>3824.25</v>
       </c>
       <c r="E153" s="16">
-        <v>3705.5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3287.75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B154" s="16"/>
       <c r="C154" s="16">
-        <v>4346.75</v>
+        <v>2596</v>
       </c>
       <c r="D154" s="16">
-        <v>4997.5</v>
+        <v>4014</v>
       </c>
       <c r="E154" s="16">
-        <v>4672.125</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B155" s="16"/>
       <c r="C155" s="16">
-        <v>4359.5</v>
+        <v>2925.5</v>
       </c>
       <c r="D155" s="16">
-        <v>4390.5</v>
+        <v>3822.5</v>
       </c>
       <c r="E155" s="16">
-        <v>4375</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="16">
-        <v>3308</v>
+        <v>3471.4</v>
       </c>
       <c r="D156" s="16">
-        <v>3717.8</v>
+        <v>3939.6</v>
       </c>
       <c r="E156" s="16">
-        <v>3512.9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3705.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B157" s="16"/>
       <c r="C157" s="16">
-        <v>2786.75</v>
+        <v>4346.75</v>
       </c>
       <c r="D157" s="16">
-        <v>4113.25</v>
+        <v>4997.5</v>
       </c>
       <c r="E157" s="16">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4672.125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B158" s="16"/>
       <c r="C158" s="16">
-        <v>3418.5</v>
+        <v>4359.5</v>
       </c>
       <c r="D158" s="16">
-        <v>4399.2</v>
+        <v>4390.5</v>
       </c>
       <c r="E158" s="16">
-        <v>3963.3333333333335</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B159" s="16"/>
       <c r="C159" s="16">
-        <v>4207.2</v>
+        <v>3308</v>
       </c>
       <c r="D159" s="16">
-        <v>3548.25</v>
+        <v>3717.8</v>
       </c>
       <c r="E159" s="16">
-        <v>3914.3333333333335</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3512.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="16">
-        <v>5092.25</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B160" s="16"/>
       <c r="C160" s="16">
-        <v>4843.5</v>
-      </c>
-      <c r="D160" s="16"/>
+        <v>2786.75</v>
+      </c>
+      <c r="D160" s="16">
+        <v>4113.25</v>
+      </c>
       <c r="E160" s="16">
-        <v>4967.875</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B161" s="16">
-        <v>3762.8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B161" s="16"/>
       <c r="C161" s="16">
-        <v>4400.3999999999996</v>
-      </c>
-      <c r="D161" s="16"/>
+        <v>3418.5</v>
+      </c>
+      <c r="D161" s="16">
+        <v>4399.2</v>
+      </c>
       <c r="E161" s="16">
-        <v>4081.6</v>
+        <v>3963.3333333333335</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" s="16"/>
+      <c r="C162" s="16">
+        <v>4207.2</v>
+      </c>
+      <c r="D162" s="16">
+        <v>3548.25</v>
+      </c>
+      <c r="E162" s="16">
+        <v>3914.3333333333335</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="16">
+        <v>5092.25</v>
+      </c>
+      <c r="C163" s="16">
+        <v>4843.5</v>
+      </c>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16">
+        <v>4967.875</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" s="16">
+        <v>3762.8</v>
+      </c>
+      <c r="C164" s="16">
+        <v>4400.3999999999996</v>
+      </c>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16">
+        <v>4081.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B162" s="16">
+      <c r="B165" s="16">
         <v>4353.666666666667</v>
       </c>
-      <c r="C162" s="16">
+      <c r="C165" s="16">
         <v>3635.5</v>
       </c>
-      <c r="D162" s="16">
+      <c r="D165" s="16">
         <v>4072.6511627906975</v>
       </c>
-      <c r="E162" s="16">
+      <c r="E165" s="16">
         <v>3878.3942307692309</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="14" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B168" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B166" s="16">
-        <v>598</v>
-      </c>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B167" s="16">
-        <v>8354.75</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B168" s="16">
-        <v>8338.5</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B169" s="16">
-        <v>500.8</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B170" s="16">
-        <v>453.125</v>
+        <v>8354.75</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B171" s="16">
-        <v>442.25</v>
+        <v>8338.5</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B172" s="16">
-        <v>441.1</v>
+        <v>500.8</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B173" s="16">
-        <v>353</v>
+        <v>453.125</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B174" s="16">
-        <v>398.77777777777777</v>
+        <v>442.25</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B175" s="16">
-        <v>391.33333333333331</v>
+        <v>441.1</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B176" s="16">
-        <v>9089</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B177" s="16">
-        <v>10310.700000000001</v>
+        <v>398.77777777777777</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B178" s="16">
+        <v>391.33333333333331</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="16">
+        <v>9089</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="16">
+        <v>10310.700000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B178" s="16">
+      <c r="B181" s="16">
         <v>3275.6346153846152</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="14" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B185" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="14" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B183">
+      <c r="B186">
         <v>0</v>
       </c>
-      <c r="C183">
+      <c r="C186">
         <v>1</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D186" t="s">
         <v>52</v>
       </c>
-      <c r="E183" s="14"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" s="16">
-        <v>19297.963750000003</v>
-      </c>
-      <c r="C184" s="16"/>
-      <c r="D184" s="16">
-        <v>19297.963750000003</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B185" s="16">
-        <v>14660.129999999997</v>
-      </c>
-      <c r="C185" s="16">
-        <v>19249.022499999999</v>
-      </c>
-      <c r="D185" s="16">
-        <v>16954.576249999998</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B186" s="16">
-        <v>12060.1975</v>
-      </c>
-      <c r="C186" s="16">
-        <v>18732.297500000001</v>
-      </c>
-      <c r="D186" s="16">
-        <v>15396.247500000001</v>
-      </c>
+      <c r="E186" s="14"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B187" s="16">
-        <v>17238.488999999998</v>
+        <v>19297.963750000003</v>
       </c>
       <c r="C187" s="16"/>
       <c r="D187" s="16">
-        <v>17238.488999999998</v>
+        <v>19297.963750000003</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B188" s="16">
-        <v>17097.128749999996</v>
-      </c>
-      <c r="C188" s="16"/>
+        <v>14660.129999999997</v>
+      </c>
+      <c r="C188" s="16">
+        <v>19249.022499999999</v>
+      </c>
       <c r="D188" s="16">
-        <v>17097.128749999996</v>
+        <v>16954.576249999998</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B189" s="16">
-        <v>13572.27125</v>
-      </c>
-      <c r="C189" s="16"/>
+        <v>12060.1975</v>
+      </c>
+      <c r="C189" s="16">
+        <v>18732.297500000001</v>
+      </c>
       <c r="D189" s="16">
-        <v>13572.27125</v>
+        <v>15396.247500000001</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B190" s="16">
-        <v>14271.349999999997</v>
+        <v>17238.488999999998</v>
       </c>
       <c r="C190" s="16"/>
       <c r="D190" s="16">
-        <v>14271.349999999997</v>
+        <v>17238.488999999998</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B191" s="16">
-        <v>13733.55125</v>
+        <v>17097.128749999996</v>
       </c>
       <c r="C191" s="16"/>
       <c r="D191" s="16">
-        <v>13733.55125</v>
+        <v>17097.128749999996</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B192" s="16">
-        <v>14005.578888888889</v>
+        <v>13572.27125</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="16">
-        <v>14005.578888888889</v>
+        <v>13572.27125</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B193" s="16">
-        <v>11739.752222222223</v>
+        <v>14271.349999999997</v>
       </c>
       <c r="C193" s="16"/>
       <c r="D193" s="16">
-        <v>11739.752222222223</v>
+        <v>14271.349999999997</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B194" s="16">
-        <v>19974.717499999999</v>
-      </c>
-      <c r="C194" s="16">
-        <v>13860.497499999999</v>
-      </c>
+        <v>13733.55125</v>
+      </c>
+      <c r="C194" s="16"/>
       <c r="D194" s="16">
-        <v>16917.607500000002</v>
+        <v>13733.55125</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B195" s="16">
-        <v>25586.182000000001</v>
-      </c>
-      <c r="C195" s="16">
-        <v>18173.871999999999</v>
-      </c>
+        <v>14005.578888888889</v>
+      </c>
+      <c r="C195" s="16"/>
       <c r="D195" s="16">
-        <v>21880.027000000002</v>
+        <v>14005.578888888889</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" s="16">
+        <v>11739.752222222223</v>
+      </c>
+      <c r="C196" s="16"/>
+      <c r="D196" s="16">
+        <v>11739.752222222223</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="16">
+        <v>19974.717499999999</v>
+      </c>
+      <c r="C197" s="16">
+        <v>13860.497499999999</v>
+      </c>
+      <c r="D197" s="16">
+        <v>16917.607500000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" s="16">
+        <v>25586.182000000001</v>
+      </c>
+      <c r="C198" s="16">
+        <v>18173.871999999999</v>
+      </c>
+      <c r="D198" s="16">
+        <v>21880.027000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B196" s="16">
+      <c r="B199" s="16">
         <v>15760.05494252873</v>
       </c>
-      <c r="C196" s="16">
+      <c r="C199" s="16">
         <v>17543.331176470587</v>
       </c>
-      <c r="D196" s="16">
+      <c r="D199" s="16">
         <v>16051.55201923077</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="14" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B202" s="14" t="s">
+      <c r="B205" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="14" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B203">
+      <c r="B206">
         <v>1</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C206" t="s">
         <v>62</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D206" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="15" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B204" s="16">
+      <c r="B207" s="16">
         <v>24334.997499999998</v>
       </c>
-      <c r="C204" s="16">
+      <c r="C207" s="16">
         <v>14260.93</v>
       </c>
-      <c r="D204" s="16">
+      <c r="D207" s="16">
         <v>19297.963749999999</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="17">
-        <v>1</v>
-      </c>
-      <c r="B205" s="16">
-        <v>24149.67</v>
-      </c>
-      <c r="C205" s="16"/>
-      <c r="D205" s="16">
-        <v>24149.67</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="17">
-        <v>2</v>
-      </c>
-      <c r="B206" s="16">
-        <v>24520.325000000001</v>
-      </c>
-      <c r="C206" s="16"/>
-      <c r="D206" s="16">
-        <v>24520.325000000001</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="17">
-        <v>3</v>
-      </c>
-      <c r="B207" s="16"/>
-      <c r="C207" s="16">
-        <v>13726.18</v>
-      </c>
-      <c r="D207" s="16">
-        <v>13726.18</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="17">
-        <v>4</v>
-      </c>
-      <c r="B208" s="16"/>
-      <c r="C208" s="16">
-        <v>14795.68</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B208" s="16">
+        <v>24149.67</v>
+      </c>
+      <c r="C208" s="16"/>
       <c r="D208" s="16">
-        <v>14795.68</v>
+        <v>24149.67</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B209" s="16"/>
-      <c r="C209" s="16">
-        <v>16954.576250000002</v>
-      </c>
+      <c r="A209" s="17">
+        <v>2</v>
+      </c>
+      <c r="B209" s="16">
+        <v>24520.325000000001</v>
+      </c>
+      <c r="C209" s="16"/>
       <c r="D209" s="16">
-        <v>16954.576249999998</v>
+        <v>24520.325000000001</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B210" s="16"/>
       <c r="C210" s="16">
-        <v>18368.754999999997</v>
+        <v>13726.18</v>
       </c>
       <c r="D210" s="16">
-        <v>18368.754999999997</v>
+        <v>13726.18</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B211" s="16"/>
       <c r="C211" s="16">
-        <v>14224.75</v>
+        <v>14795.68</v>
       </c>
       <c r="D211" s="16">
-        <v>14224.75</v>
+        <v>14795.68</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="17">
-        <v>3</v>
+      <c r="A212" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B212" s="16"/>
       <c r="C212" s="16">
-        <v>13846.715</v>
+        <v>16954.576250000002</v>
       </c>
       <c r="D212" s="16">
-        <v>13846.715</v>
+        <v>16954.576249999998</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B213" s="16"/>
       <c r="C213" s="16">
-        <v>21378.084999999999</v>
+        <v>18368.754999999997</v>
       </c>
       <c r="D213" s="16">
-        <v>21378.084999999999</v>
+        <v>18368.754999999997</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="15" t="s">
-        <v>10</v>
+      <c r="A214" s="17">
+        <v>2</v>
       </c>
       <c r="B214" s="16"/>
       <c r="C214" s="16">
-        <v>15396.247500000001</v>
+        <v>14224.75</v>
       </c>
       <c r="D214" s="16">
-        <v>15396.247500000001</v>
+        <v>14224.75</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B215" s="16"/>
       <c r="C215" s="16">
-        <v>16592.235000000001</v>
+        <v>13846.715</v>
       </c>
       <c r="D215" s="16">
-        <v>16592.235000000001</v>
+        <v>13846.715</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B216" s="16"/>
       <c r="C216" s="16">
-        <v>15284.34</v>
+        <v>21378.084999999999</v>
       </c>
       <c r="D216" s="16">
-        <v>15284.34</v>
+        <v>21378.084999999999</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="17">
-        <v>3</v>
+      <c r="A217" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="B217" s="16"/>
       <c r="C217" s="16">
-        <v>11452.2</v>
+        <v>15396.247500000001</v>
       </c>
       <c r="D217" s="16">
-        <v>11452.2</v>
+        <v>15396.247500000001</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B218" s="16"/>
       <c r="C218" s="16">
-        <v>18256.215</v>
+        <v>16592.235000000001</v>
       </c>
       <c r="D218" s="16">
-        <v>18256.215</v>
+        <v>16592.235000000001</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B219" s="16">
-        <v>18101.145</v>
-      </c>
+      <c r="A219" s="17">
+        <v>2</v>
+      </c>
+      <c r="B219" s="16"/>
       <c r="C219" s="16">
-        <v>16663.385000000002</v>
+        <v>15284.34</v>
       </c>
       <c r="D219" s="16">
-        <v>17238.488999999998</v>
+        <v>15284.34</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="17">
-        <v>1</v>
-      </c>
-      <c r="B220" s="16">
-        <v>18536.55</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B220" s="16"/>
       <c r="C220" s="16">
-        <v>18661.169999999998</v>
+        <v>11452.2</v>
       </c>
       <c r="D220" s="16">
-        <v>18598.86</v>
+        <v>11452.2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="17">
-        <v>2</v>
-      </c>
-      <c r="B221" s="16">
-        <v>19386.330000000002</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B221" s="16"/>
       <c r="C221" s="16">
-        <v>18074.46</v>
+        <v>18256.215</v>
       </c>
       <c r="D221" s="16">
-        <v>18730.395</v>
+        <v>18256.215</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="17">
-        <v>3</v>
+      <c r="A222" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="B222" s="16">
-        <v>16205.53</v>
+        <v>18101.145</v>
       </c>
       <c r="C222" s="16">
-        <v>11157.09</v>
+        <v>16663.385000000002</v>
       </c>
       <c r="D222" s="16">
-        <v>13681.310000000001</v>
+        <v>17238.488999999998</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B223" s="16">
-        <v>18276.169999999998</v>
+        <v>18536.55</v>
       </c>
       <c r="C223" s="16">
-        <v>13969.69</v>
+        <v>18661.169999999998</v>
       </c>
       <c r="D223" s="16">
-        <v>16122.93</v>
+        <v>18598.86</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="17">
-        <v>5</v>
-      </c>
-      <c r="B224" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B224" s="16">
+        <v>19386.330000000002</v>
+      </c>
       <c r="C224" s="16">
-        <v>19058.95</v>
+        <v>18074.46</v>
       </c>
       <c r="D224" s="16">
-        <v>19058.95</v>
+        <v>18730.395</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B225" s="16"/>
+      <c r="A225" s="17">
+        <v>3</v>
+      </c>
+      <c r="B225" s="16">
+        <v>16205.53</v>
+      </c>
       <c r="C225" s="16">
-        <v>17097.128750000003</v>
+        <v>11157.09</v>
       </c>
       <c r="D225" s="16">
-        <v>17097.12875</v>
+        <v>13681.310000000001</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="17">
-        <v>1</v>
-      </c>
-      <c r="B226" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="B226" s="16">
+        <v>18276.169999999998</v>
+      </c>
       <c r="C226" s="16">
-        <v>18750.264999999999</v>
+        <v>13969.69</v>
       </c>
       <c r="D226" s="16">
-        <v>18750.264999999999</v>
+        <v>16122.93</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B227" s="16"/>
       <c r="C227" s="16">
-        <v>15174.615000000002</v>
+        <v>19058.95</v>
       </c>
       <c r="D227" s="16">
-        <v>15174.615000000002</v>
+        <v>19058.95</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="17">
-        <v>3</v>
+      <c r="A228" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B228" s="16"/>
       <c r="C228" s="16">
-        <v>15687.904999999999</v>
+        <v>17097.128750000003</v>
       </c>
       <c r="D228" s="16">
-        <v>15687.904999999999</v>
+        <v>17097.12875</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B229" s="16"/>
       <c r="C229" s="16">
-        <v>18775.73</v>
+        <v>18750.264999999999</v>
       </c>
       <c r="D229" s="16">
-        <v>18775.73</v>
+        <v>18750.264999999999</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="15" t="s">
-        <v>13</v>
+      <c r="A230" s="17">
+        <v>2</v>
       </c>
       <c r="B230" s="16"/>
       <c r="C230" s="16">
-        <v>13572.27125</v>
+        <v>15174.615000000002</v>
       </c>
       <c r="D230" s="16">
-        <v>13572.271250000002</v>
+        <v>15174.615000000002</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B231" s="16"/>
       <c r="C231" s="16">
-        <v>13020.09</v>
+        <v>15687.904999999999</v>
       </c>
       <c r="D231" s="16">
-        <v>13020.09</v>
+        <v>15687.904999999999</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B232" s="16"/>
       <c r="C232" s="16">
-        <v>13024.865000000002</v>
+        <v>18775.73</v>
       </c>
       <c r="D232" s="16">
-        <v>13024.865000000002</v>
+        <v>18775.73</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="17">
-        <v>3</v>
+      <c r="A233" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="B233" s="16"/>
       <c r="C233" s="16">
-        <v>12423.990000000002</v>
+        <v>13572.27125</v>
       </c>
       <c r="D233" s="16">
-        <v>12423.990000000002</v>
+        <v>13572.271250000002</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B234" s="16"/>
       <c r="C234" s="16">
-        <v>15820.14</v>
+        <v>13020.09</v>
       </c>
       <c r="D234" s="16">
-        <v>15820.14</v>
+        <v>13020.09</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="15" t="s">
-        <v>14</v>
+      <c r="A235" s="17">
+        <v>2</v>
       </c>
       <c r="B235" s="16"/>
       <c r="C235" s="16">
-        <v>14271.35</v>
+        <v>13024.865000000002</v>
       </c>
       <c r="D235" s="16">
-        <v>14271.35</v>
+        <v>13024.865000000002</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B236" s="16"/>
       <c r="C236" s="16">
-        <v>14543.134999999998</v>
+        <v>12423.990000000002</v>
       </c>
       <c r="D236" s="16">
-        <v>14543.134999999998</v>
+        <v>12423.990000000002</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B237" s="16"/>
       <c r="C237" s="16">
-        <v>14977.91</v>
+        <v>15820.14</v>
       </c>
       <c r="D237" s="16">
-        <v>14977.91</v>
+        <v>15820.14</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="17">
-        <v>3</v>
+      <c r="A238" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B238" s="16"/>
       <c r="C238" s="16">
-        <v>12154.754999999999</v>
+        <v>14271.35</v>
       </c>
       <c r="D238" s="16">
-        <v>12154.754999999999</v>
+        <v>14271.35</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B239" s="16"/>
       <c r="C239" s="16">
-        <v>13575.195</v>
+        <v>14543.134999999998</v>
       </c>
       <c r="D239" s="16">
-        <v>13575.195</v>
+        <v>14543.134999999998</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B240" s="16"/>
       <c r="C240" s="16">
-        <v>16105.755000000001</v>
+        <v>14977.91</v>
       </c>
       <c r="D240" s="16">
-        <v>16105.755000000001</v>
+        <v>14977.91</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="15" t="s">
-        <v>15</v>
+      <c r="A241" s="17">
+        <v>3</v>
       </c>
       <c r="B241" s="16"/>
       <c r="C241" s="16">
-        <v>13733.55125</v>
+        <v>12154.754999999999</v>
       </c>
       <c r="D241" s="16">
-        <v>13733.55125</v>
+        <v>12154.754999999999</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B242" s="16"/>
       <c r="C242" s="16">
-        <v>13591.060000000001</v>
+        <v>13575.195</v>
       </c>
       <c r="D242" s="16">
-        <v>13591.060000000001</v>
+        <v>13575.195</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B243" s="16"/>
       <c r="C243" s="16">
-        <v>7816.369999999999</v>
+        <v>16105.755000000001</v>
       </c>
       <c r="D243" s="16">
-        <v>7816.369999999999</v>
+        <v>16105.755000000001</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="17">
-        <v>3</v>
+      <c r="A244" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="B244" s="16"/>
       <c r="C244" s="16">
-        <v>15247.945</v>
+        <v>13733.55125</v>
       </c>
       <c r="D244" s="16">
-        <v>15247.945</v>
+        <v>13733.55125</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B245" s="16"/>
       <c r="C245" s="16">
-        <v>18278.830000000002</v>
+        <v>13591.060000000001</v>
       </c>
       <c r="D245" s="16">
-        <v>18278.830000000002</v>
+        <v>13591.060000000001</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="15" t="s">
-        <v>16</v>
+      <c r="A246" s="17">
+        <v>2</v>
       </c>
       <c r="B246" s="16"/>
       <c r="C246" s="16">
-        <v>14005.578888888889</v>
+        <v>7816.369999999999</v>
       </c>
       <c r="D246" s="16">
-        <v>14005.578888888887</v>
+        <v>7816.369999999999</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B247" s="16"/>
       <c r="C247" s="16">
-        <v>16308.93</v>
+        <v>15247.945</v>
       </c>
       <c r="D247" s="16">
-        <v>16308.93</v>
+        <v>15247.945</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B248" s="16"/>
       <c r="C248" s="16">
-        <v>11731.915000000001</v>
+        <v>18278.830000000002</v>
       </c>
       <c r="D248" s="16">
-        <v>11731.915000000001</v>
+        <v>18278.830000000002</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="17">
-        <v>3</v>
+      <c r="A249" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B249" s="16"/>
       <c r="C249" s="16">
-        <v>14293</v>
+        <v>14005.578888888889</v>
       </c>
       <c r="D249" s="16">
-        <v>14293</v>
+        <v>14005.578888888887</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B250" s="16"/>
       <c r="C250" s="16">
-        <v>13042.23</v>
+        <v>16308.93</v>
       </c>
       <c r="D250" s="16">
-        <v>13042.23</v>
+        <v>16308.93</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B251" s="16"/>
       <c r="C251" s="16">
-        <v>15298.06</v>
+        <v>11731.915000000001</v>
       </c>
       <c r="D251" s="16">
-        <v>15298.06</v>
+        <v>11731.915000000001</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="15" t="s">
-        <v>17</v>
+      <c r="A252" s="17">
+        <v>3</v>
       </c>
       <c r="B252" s="16"/>
       <c r="C252" s="16">
-        <v>11739.752222222223</v>
+        <v>14293</v>
       </c>
       <c r="D252" s="16">
-        <v>11739.752222222223</v>
+        <v>14293</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B253" s="16"/>
       <c r="C253" s="16">
-        <v>13574.115000000002</v>
+        <v>13042.23</v>
       </c>
       <c r="D253" s="16">
-        <v>13574.115000000002</v>
+        <v>13042.23</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B254" s="16"/>
       <c r="C254" s="16">
-        <v>10689.424999999999</v>
+        <v>15298.06</v>
       </c>
       <c r="D254" s="16">
-        <v>10689.424999999999</v>
+        <v>15298.06</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="17">
-        <v>3</v>
+      <c r="A255" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B255" s="16"/>
       <c r="C255" s="16">
-        <v>6766.2250000000004</v>
+        <v>11739.752222222223</v>
       </c>
       <c r="D255" s="16">
-        <v>6766.2250000000004</v>
+        <v>11739.752222222223</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B256" s="16"/>
       <c r="C256" s="16">
-        <v>14736.4</v>
+        <v>13574.115000000002</v>
       </c>
       <c r="D256" s="16">
-        <v>14736.4</v>
+        <v>13574.115000000002</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B257" s="16"/>
       <c r="C257" s="16">
-        <v>14125.44</v>
+        <v>10689.424999999999</v>
       </c>
       <c r="D257" s="16">
-        <v>14125.44</v>
+        <v>10689.424999999999</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="15" t="s">
-        <v>6</v>
+      <c r="A258" s="17">
+        <v>3</v>
       </c>
       <c r="B258" s="16"/>
       <c r="C258" s="16">
-        <v>16917.607500000002</v>
+        <v>6766.2250000000004</v>
       </c>
       <c r="D258" s="16">
-        <v>16917.607500000002</v>
+        <v>6766.2250000000004</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B259" s="16"/>
       <c r="C259" s="16">
-        <v>16771.29</v>
+        <v>14736.4</v>
       </c>
       <c r="D259" s="16">
-        <v>16771.29</v>
+        <v>14736.4</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B260" s="16"/>
       <c r="C260" s="16">
-        <v>16919.760000000002</v>
+        <v>14125.44</v>
       </c>
       <c r="D260" s="16">
-        <v>16919.760000000002</v>
+        <v>14125.44</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="17">
-        <v>3</v>
+      <c r="A261" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B261" s="16"/>
       <c r="C261" s="16">
-        <v>17001.625</v>
+        <v>16917.607500000002</v>
       </c>
       <c r="D261" s="16">
-        <v>17001.625</v>
+        <v>16917.607500000002</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B262" s="16"/>
       <c r="C262" s="16">
-        <v>16977.755000000001</v>
+        <v>16771.29</v>
       </c>
       <c r="D262" s="16">
-        <v>16977.755000000001</v>
+        <v>16771.29</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B263" s="16">
-        <v>25947.763333333332</v>
-      </c>
+      <c r="A263" s="17">
+        <v>2</v>
+      </c>
+      <c r="B263" s="16"/>
       <c r="C263" s="16">
-        <v>15778.422500000001</v>
+        <v>16919.760000000002</v>
       </c>
       <c r="D263" s="16">
-        <v>21880.027000000002</v>
+        <v>16919.760000000002</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B264" s="16"/>
       <c r="C264" s="16">
-        <v>17719.415000000001</v>
+        <v>17001.625</v>
       </c>
       <c r="D264" s="16">
-        <v>17719.415000000001</v>
+        <v>17001.625</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B265" s="16"/>
       <c r="C265" s="16">
-        <v>13837.43</v>
+        <v>16977.755000000001</v>
       </c>
       <c r="D265" s="16">
-        <v>13837.43</v>
+        <v>16977.755000000001</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="17">
-        <v>3</v>
+      <c r="A266" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="B266" s="16">
-        <v>22271.285</v>
-      </c>
-      <c r="C266" s="16"/>
+        <v>25947.763333333332</v>
+      </c>
+      <c r="C266" s="16">
+        <v>15778.422500000001</v>
+      </c>
       <c r="D266" s="16">
-        <v>22271.285</v>
+        <v>21880.027000000002</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="17">
-        <v>4</v>
-      </c>
-      <c r="B267" s="16">
-        <v>24383.32</v>
-      </c>
-      <c r="C267" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="B267" s="16"/>
+      <c r="C267" s="16">
+        <v>17719.415000000001</v>
+      </c>
       <c r="D267" s="16">
-        <v>24383.32</v>
+        <v>17719.415000000001</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="17">
+        <v>2</v>
+      </c>
+      <c r="B268" s="16"/>
+      <c r="C268" s="16">
+        <v>13837.43</v>
+      </c>
+      <c r="D268" s="16">
+        <v>13837.43</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="17">
+        <v>3</v>
+      </c>
+      <c r="B269" s="16">
+        <v>22271.285</v>
+      </c>
+      <c r="C269" s="16"/>
+      <c r="D269" s="16">
+        <v>22271.285</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="17">
+        <v>4</v>
+      </c>
+      <c r="B270" s="16">
+        <v>24383.32</v>
+      </c>
+      <c r="C270" s="16"/>
+      <c r="D270" s="16">
+        <v>24383.32</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="17">
         <v>5</v>
       </c>
-      <c r="B268" s="16">
+      <c r="B271" s="16">
         <v>31188.685000000001</v>
       </c>
-      <c r="C268" s="16"/>
-      <c r="D268" s="16">
+      <c r="C271" s="16"/>
+      <c r="D271" s="16">
         <v>31188.685000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="15" t="s">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B269" s="16">
+      <c r="B272" s="16">
         <v>23245.082142857143</v>
       </c>
-      <c r="C269" s="16">
+      <c r="C272" s="16">
         <v>14932.558444444439</v>
       </c>
-      <c r="D269" s="16">
+      <c r="D272" s="16">
         <v>16051.552019230776</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -36235,8 +37924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
